--- a/West Coast_stats.xlsx
+++ b/West Coast_stats.xlsx
@@ -13336,7 +13336,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -17879,7 +17879,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -18528,7 +18528,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -19177,7 +19177,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -30859,7 +30859,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -32806,7 +32806,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -33455,7 +33455,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -35402,7 +35402,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -36700,7 +36700,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -37349,7 +37349,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -37998,7 +37998,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -38647,7 +38647,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -39296,7 +39296,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -39945,7 +39945,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -40594,7 +40594,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -41243,7 +41243,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -41892,7 +41892,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -42541,7 +42541,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -43190,7 +43190,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -43839,7 +43839,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -44488,7 +44488,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -45137,7 +45137,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -45786,7 +45786,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -46435,7 +46435,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -47084,7 +47084,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -47733,7 +47733,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -48382,7 +48382,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -49031,7 +49031,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -49680,7 +49680,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -50329,7 +50329,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -50978,7 +50978,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -51627,7 +51627,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -52276,7 +52276,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -52925,7 +52925,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -53574,7 +53574,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -54223,7 +54223,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -54872,7 +54872,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -55521,7 +55521,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -56170,7 +56170,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -56819,7 +56819,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -57468,7 +57468,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -58117,7 +58117,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -58766,7 +58766,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -59415,7 +59415,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -60064,7 +60064,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -60713,7 +60713,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -61362,7 +61362,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -62011,7 +62011,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -62660,7 +62660,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -63309,7 +63309,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -63958,7 +63958,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -64607,7 +64607,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -65256,7 +65256,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -65905,7 +65905,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/West Coast_stats.xlsx
+++ b/West Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HG102"/>
+  <dimension ref="A1:HJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +1001,15 @@
       <c r="HG1" t="n">
         <v>9923</v>
       </c>
+      <c r="HH1" t="n">
+        <v>9936</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>10131</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>10140</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1650,6 +1659,15 @@
       <c r="HG2" t="n">
         <v>2019</v>
       </c>
+      <c r="HH2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2299,6 +2317,15 @@
       <c r="HG3" t="n">
         <v>26</v>
       </c>
+      <c r="HH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2948,6 +2975,15 @@
       <c r="HG4" t="n">
         <v>1</v>
       </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3597,6 +3633,15 @@
       <c r="HG5" t="n">
         <v>0</v>
       </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4246,6 +4291,15 @@
       <c r="HG6" t="n">
         <v>68</v>
       </c>
+      <c r="HH6" t="n">
+        <v>78</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>46</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4895,6 +4949,15 @@
       <c r="HG7" t="n">
         <v>88</v>
       </c>
+      <c r="HH7" t="n">
+        <v>51</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>90</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5544,6 +5607,15 @@
       <c r="HG8" t="n">
         <v>-20</v>
       </c>
+      <c r="HH8" t="n">
+        <v>27</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>-44</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>-30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6193,6 +6265,15 @@
       <c r="HG9" t="n">
         <v>0</v>
       </c>
+      <c r="HH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6842,6 +6923,15 @@
       <c r="HG10" t="n">
         <v>7</v>
       </c>
+      <c r="HH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7491,6 +7581,15 @@
       <c r="HG11" t="n">
         <v>209</v>
       </c>
+      <c r="HH11" t="n">
+        <v>214</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>183</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8140,6 +8239,15 @@
       <c r="HG12" t="n">
         <v>95</v>
       </c>
+      <c r="HH12" t="n">
+        <v>108</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>104</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8789,6 +8897,15 @@
       <c r="HG13" t="n">
         <v>304</v>
       </c>
+      <c r="HH13" t="n">
+        <v>322</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>287</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9438,6 +9555,15 @@
       <c r="HG14" t="n">
         <v>2.2</v>
       </c>
+      <c r="HH14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10087,6 +10213,15 @@
       <c r="HG15" t="n">
         <v>92</v>
       </c>
+      <c r="HH15" t="n">
+        <v>119</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>56</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10736,6 +10871,15 @@
       <c r="HG16" t="n">
         <v>47</v>
       </c>
+      <c r="HH16" t="n">
+        <v>35</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11385,6 +11529,15 @@
       <c r="HG17" t="n">
         <v>43</v>
       </c>
+      <c r="HH17" t="n">
+        <v>31</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>43</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12034,6 +12187,15 @@
       <c r="HG18" t="n">
         <v>25</v>
       </c>
+      <c r="HH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI18" t="n">
+        <v>16</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12683,6 +12845,15 @@
       <c r="HG19" t="n">
         <v>17</v>
       </c>
+      <c r="HH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI19" t="n">
+        <v>16</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13332,6 +13503,15 @@
       <c r="HG20" t="n">
         <v>10</v>
       </c>
+      <c r="HH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="HI20" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13981,6 +14161,15 @@
       <c r="HG21" t="n">
         <v>8</v>
       </c>
+      <c r="HH21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14630,6 +14819,15 @@
       <c r="HG22" t="n">
         <v>5</v>
       </c>
+      <c r="HH22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI22" t="n">
+        <v>9</v>
+      </c>
+      <c r="HJ22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15279,6 +15477,15 @@
       <c r="HG23" t="n">
         <v>3</v>
       </c>
+      <c r="HH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15928,6 +16135,15 @@
       <c r="HG24" t="n">
         <v>18</v>
       </c>
+      <c r="HH24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>16</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16577,6 +16793,15 @@
       <c r="HG25" t="n">
         <v>55.6</v>
       </c>
+      <c r="HH25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17226,6 +17451,15 @@
       <c r="HG26" t="n">
         <v>30.4</v>
       </c>
+      <c r="HH26" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="HI26" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="HJ26" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17875,6 +18109,15 @@
       <c r="HG27" t="n">
         <v>16.89</v>
       </c>
+      <c r="HH27" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="HI27" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="HJ27" t="n">
+        <v>17.57</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18524,6 +18767,15 @@
       <c r="HG28" t="n">
         <v>31</v>
       </c>
+      <c r="HH28" t="n">
+        <v>28</v>
+      </c>
+      <c r="HI28" t="n">
+        <v>33</v>
+      </c>
+      <c r="HJ28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19173,6 +19425,15 @@
       <c r="HG29" t="n">
         <v>48</v>
       </c>
+      <c r="HH29" t="n">
+        <v>35</v>
+      </c>
+      <c r="HI29" t="n">
+        <v>53</v>
+      </c>
+      <c r="HJ29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19822,6 +20083,15 @@
       <c r="HG30" t="n">
         <v>45</v>
       </c>
+      <c r="HH30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HI30" t="n">
+        <v>33</v>
+      </c>
+      <c r="HJ30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20471,6 +20741,15 @@
       <c r="HG31" t="n">
         <v>45</v>
       </c>
+      <c r="HH31" t="n">
+        <v>35</v>
+      </c>
+      <c r="HI31" t="n">
+        <v>46</v>
+      </c>
+      <c r="HJ31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21120,6 +21399,15 @@
       <c r="HG32" t="n">
         <v>2.5</v>
       </c>
+      <c r="HH32" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="HI32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="HJ32" t="n">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21769,6 +22057,15 @@
       <c r="HG33" t="n">
         <v>4.5</v>
       </c>
+      <c r="HH33" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="HI33" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="HJ33" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22418,6 +22715,15 @@
       <c r="HG34" t="n">
         <v>33.3</v>
       </c>
+      <c r="HH34" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="HI34" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="HJ34" t="n">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23067,6 +23373,15 @@
       <c r="HG35" t="n">
         <v>22.2</v>
       </c>
+      <c r="HH35" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="HI35" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ35" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23716,6 +24031,15 @@
       <c r="HG36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HH36" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="HI36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HJ36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24365,6 +24689,15 @@
       <c r="HG37" t="n">
         <v>89.2</v>
       </c>
+      <c r="HH37" t="n">
+        <v>89</v>
+      </c>
+      <c r="HI37" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="HJ37" t="n">
+        <v>88.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25014,6 +25347,15 @@
       <c r="HG38" t="n">
         <v>27.24</v>
       </c>
+      <c r="HH38" t="n">
+        <v>27</v>
+      </c>
+      <c r="HI38" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="HJ38" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25663,6 +26005,15 @@
       <c r="HG39" t="n">
         <v>146.8</v>
       </c>
+      <c r="HH39" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="HI39" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="HJ39" t="n">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26312,6 +26663,15 @@
       <c r="HG40" t="n">
         <v>3</v>
       </c>
+      <c r="HH40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26961,6 +27321,15 @@
       <c r="HG41" t="n">
         <v>3</v>
       </c>
+      <c r="HH41" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27610,6 +27979,15 @@
       <c r="HG42" t="n">
         <v>3</v>
       </c>
+      <c r="HH42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28259,6 +28637,15 @@
       <c r="HG43" t="n">
         <v>13</v>
       </c>
+      <c r="HH43" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI43" t="n">
+        <v>11</v>
+      </c>
+      <c r="HJ43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28908,6 +29295,15 @@
       <c r="HG44" t="n">
         <v>128</v>
       </c>
+      <c r="HH44" t="n">
+        <v>93</v>
+      </c>
+      <c r="HI44" t="n">
+        <v>115</v>
+      </c>
+      <c r="HJ44" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29557,6 +29953,15 @@
       <c r="HG45" t="n">
         <v>179</v>
       </c>
+      <c r="HH45" t="n">
+        <v>222</v>
+      </c>
+      <c r="HI45" t="n">
+        <v>160</v>
+      </c>
+      <c r="HJ45" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30206,6 +30611,15 @@
       <c r="HG46" t="n">
         <v>214</v>
       </c>
+      <c r="HH46" t="n">
+        <v>248</v>
+      </c>
+      <c r="HI46" t="n">
+        <v>191</v>
+      </c>
+      <c r="HJ46" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30855,6 +31269,15 @@
       <c r="HG47" t="n">
         <v>70.40000000000001</v>
       </c>
+      <c r="HH47" t="n">
+        <v>77</v>
+      </c>
+      <c r="HI47" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="HJ47" t="n">
+        <v>61.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31504,6 +31927,15 @@
       <c r="HG48" t="n">
         <v>48</v>
       </c>
+      <c r="HH48" t="n">
+        <v>35</v>
+      </c>
+      <c r="HI48" t="n">
+        <v>53</v>
+      </c>
+      <c r="HJ48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32153,6 +32585,15 @@
       <c r="HG49" t="n">
         <v>13</v>
       </c>
+      <c r="HH49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32802,6 +33243,15 @@
       <c r="HG50" t="n">
         <v>5</v>
       </c>
+      <c r="HH50" t="n">
+        <v>8</v>
+      </c>
+      <c r="HI50" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33451,6 +33901,15 @@
       <c r="HG51" t="n">
         <v>31</v>
       </c>
+      <c r="HH51" t="n">
+        <v>28</v>
+      </c>
+      <c r="HI51" t="n">
+        <v>33</v>
+      </c>
+      <c r="HJ51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34100,6 +34559,15 @@
       <c r="HG52" t="n">
         <v>45</v>
       </c>
+      <c r="HH52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HI52" t="n">
+        <v>33</v>
+      </c>
+      <c r="HJ52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34749,6 +35217,15 @@
       <c r="HG53" t="n">
         <v>40</v>
       </c>
+      <c r="HH53" t="n">
+        <v>45</v>
+      </c>
+      <c r="HI53" t="n">
+        <v>54</v>
+      </c>
+      <c r="HJ53" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35398,6 +35875,15 @@
       <c r="HG54" t="n">
         <v>8</v>
       </c>
+      <c r="HH54" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36047,6 +36533,15 @@
       <c r="HG55" t="n">
         <v>8</v>
       </c>
+      <c r="HH55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36696,6 +37191,15 @@
       <c r="HG56" t="n">
         <v>80</v>
       </c>
+      <c r="HH56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HI56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HJ56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37345,6 +37849,15 @@
       <c r="HG57" t="n">
         <v>223</v>
       </c>
+      <c r="HH57" t="n">
+        <v>177</v>
+      </c>
+      <c r="HI57" t="n">
+        <v>207</v>
+      </c>
+      <c r="HJ57" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37994,6 +38507,15 @@
       <c r="HG58" t="n">
         <v>148</v>
       </c>
+      <c r="HH58" t="n">
+        <v>141</v>
+      </c>
+      <c r="HI58" t="n">
+        <v>130</v>
+      </c>
+      <c r="HJ58" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38643,6 +39165,15 @@
       <c r="HG59" t="n">
         <v>371</v>
       </c>
+      <c r="HH59" t="n">
+        <v>318</v>
+      </c>
+      <c r="HI59" t="n">
+        <v>337</v>
+      </c>
+      <c r="HJ59" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39292,6 +39823,15 @@
       <c r="HG60" t="n">
         <v>1.51</v>
       </c>
+      <c r="HH60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="HI60" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="HJ60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39941,6 +40481,15 @@
       <c r="HG61" t="n">
         <v>98</v>
       </c>
+      <c r="HH61" t="n">
+        <v>80</v>
+      </c>
+      <c r="HI61" t="n">
+        <v>68</v>
+      </c>
+      <c r="HJ61" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40590,6 +41139,15 @@
       <c r="HG62" t="n">
         <v>61</v>
       </c>
+      <c r="HH62" t="n">
+        <v>29</v>
+      </c>
+      <c r="HI62" t="n">
+        <v>38</v>
+      </c>
+      <c r="HJ62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41239,6 +41797,15 @@
       <c r="HG63" t="n">
         <v>14</v>
       </c>
+      <c r="HH63" t="n">
+        <v>19</v>
+      </c>
+      <c r="HI63" t="n">
+        <v>28</v>
+      </c>
+      <c r="HJ63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41888,6 +42455,15 @@
       <c r="HG64" t="n">
         <v>17</v>
       </c>
+      <c r="HH64" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI64" t="n">
+        <v>16</v>
+      </c>
+      <c r="HJ64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42537,6 +43113,15 @@
       <c r="HG65" t="n">
         <v>25</v>
       </c>
+      <c r="HH65" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI65" t="n">
+        <v>16</v>
+      </c>
+      <c r="HJ65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43186,6 +43771,15 @@
       <c r="HG66" t="n">
         <v>13</v>
       </c>
+      <c r="HH66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI66" t="n">
+        <v>14</v>
+      </c>
+      <c r="HJ66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43835,6 +44429,15 @@
       <c r="HG67" t="n">
         <v>6</v>
       </c>
+      <c r="HH67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI67" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44484,6 +45087,15 @@
       <c r="HG68" t="n">
         <v>7</v>
       </c>
+      <c r="HH68" t="n">
+        <v>8</v>
+      </c>
+      <c r="HI68" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45133,6 +45745,15 @@
       <c r="HG69" t="n">
         <v>3</v>
       </c>
+      <c r="HH69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45782,6 +46403,15 @@
       <c r="HG70" t="n">
         <v>23</v>
       </c>
+      <c r="HH70" t="n">
+        <v>16</v>
+      </c>
+      <c r="HI70" t="n">
+        <v>20</v>
+      </c>
+      <c r="HJ70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46431,6 +47061,15 @@
       <c r="HG71" t="n">
         <v>56.5</v>
       </c>
+      <c r="HH71" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="HI71" t="n">
+        <v>70</v>
+      </c>
+      <c r="HJ71" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47080,6 +47719,15 @@
       <c r="HG72" t="n">
         <v>28.54</v>
       </c>
+      <c r="HH72" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="HI72" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="HJ72" t="n">
+        <v>28.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47729,6 +48377,15 @@
       <c r="HG73" t="n">
         <v>16.13</v>
       </c>
+      <c r="HH73" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="HI73" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="HJ73" t="n">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48378,6 +49035,15 @@
       <c r="HG74" t="n">
         <v>31</v>
       </c>
+      <c r="HH74" t="n">
+        <v>25</v>
+      </c>
+      <c r="HI74" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49027,6 +49693,15 @@
       <c r="HG75" t="n">
         <v>53</v>
       </c>
+      <c r="HH75" t="n">
+        <v>44</v>
+      </c>
+      <c r="HI75" t="n">
+        <v>64</v>
+      </c>
+      <c r="HJ75" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49676,6 +50351,15 @@
       <c r="HG76" t="n">
         <v>35</v>
       </c>
+      <c r="HH76" t="n">
+        <v>21</v>
+      </c>
+      <c r="HI76" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50325,6 +51009,15 @@
       <c r="HG77" t="n">
         <v>60</v>
       </c>
+      <c r="HH77" t="n">
+        <v>45</v>
+      </c>
+      <c r="HI77" t="n">
+        <v>49</v>
+      </c>
+      <c r="HJ77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50974,6 +51667,15 @@
       <c r="HG78" t="n">
         <v>2.61</v>
       </c>
+      <c r="HH78" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="HI78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="HJ78" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51623,6 +52325,15 @@
       <c r="HG79" t="n">
         <v>4.62</v>
       </c>
+      <c r="HH79" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="HI79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="HJ79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52272,6 +52983,15 @@
       <c r="HG80" t="n">
         <v>33.3</v>
       </c>
+      <c r="HH80" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HI80" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="HJ80" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52921,6 +53641,15 @@
       <c r="HG81" t="n">
         <v>21.7</v>
       </c>
+      <c r="HH81" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="HI81" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HJ81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53570,6 +54299,15 @@
       <c r="HG82" t="n">
         <v>188</v>
       </c>
+      <c r="HH82" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="HI82" t="n">
+        <v>187</v>
+      </c>
+      <c r="HJ82" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54219,6 +54957,15 @@
       <c r="HG83" t="n">
         <v>89.2</v>
       </c>
+      <c r="HH83" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HI83" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="HJ83" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54868,6 +55615,15 @@
       <c r="HG84" t="n">
         <v>26.49</v>
       </c>
+      <c r="HH84" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="HI84" t="n">
+        <v>24</v>
+      </c>
+      <c r="HJ84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55517,6 +56273,15 @@
       <c r="HG85" t="n">
         <v>126.1</v>
       </c>
+      <c r="HH85" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HI85" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="HJ85" t="n">
+        <v>89.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56166,6 +56931,15 @@
       <c r="HG86" t="n">
         <v>7</v>
       </c>
+      <c r="HH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI86" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56815,6 +57589,15 @@
       <c r="HG87" t="n">
         <v>5</v>
       </c>
+      <c r="HH87" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI87" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57464,6 +58247,15 @@
       <c r="HG88" t="n">
         <v>1</v>
       </c>
+      <c r="HH88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58113,6 +58905,15 @@
       <c r="HG89" t="n">
         <v>9</v>
       </c>
+      <c r="HH89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58762,6 +59563,15 @@
       <c r="HG90" t="n">
         <v>151</v>
       </c>
+      <c r="HH90" t="n">
+        <v>118</v>
+      </c>
+      <c r="HI90" t="n">
+        <v>137</v>
+      </c>
+      <c r="HJ90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59411,6 +60221,15 @@
       <c r="HG91" t="n">
         <v>219</v>
       </c>
+      <c r="HH91" t="n">
+        <v>201</v>
+      </c>
+      <c r="HI91" t="n">
+        <v>197</v>
+      </c>
+      <c r="HJ91" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60060,6 +60879,15 @@
       <c r="HG92" t="n">
         <v>280</v>
       </c>
+      <c r="HH92" t="n">
+        <v>231</v>
+      </c>
+      <c r="HI92" t="n">
+        <v>234</v>
+      </c>
+      <c r="HJ92" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60709,6 +61537,15 @@
       <c r="HG93" t="n">
         <v>75.5</v>
       </c>
+      <c r="HH93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HI93" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="HJ93" t="n">
+        <v>61.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61358,6 +62195,15 @@
       <c r="HG94" t="n">
         <v>53</v>
       </c>
+      <c r="HH94" t="n">
+        <v>44</v>
+      </c>
+      <c r="HI94" t="n">
+        <v>64</v>
+      </c>
+      <c r="HJ94" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62007,6 +62853,15 @@
       <c r="HG95" t="n">
         <v>16</v>
       </c>
+      <c r="HH95" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI95" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62656,6 +63511,15 @@
       <c r="HG96" t="n">
         <v>17</v>
       </c>
+      <c r="HH96" t="n">
+        <v>8</v>
+      </c>
+      <c r="HI96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63305,6 +64169,15 @@
       <c r="HG97" t="n">
         <v>31</v>
       </c>
+      <c r="HH97" t="n">
+        <v>25</v>
+      </c>
+      <c r="HI97" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63954,6 +64827,15 @@
       <c r="HG98" t="n">
         <v>35</v>
       </c>
+      <c r="HH98" t="n">
+        <v>21</v>
+      </c>
+      <c r="HI98" t="n">
+        <v>39</v>
+      </c>
+      <c r="HJ98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64603,6 +65485,15 @@
       <c r="HG99" t="n">
         <v>41</v>
       </c>
+      <c r="HH99" t="n">
+        <v>36</v>
+      </c>
+      <c r="HI99" t="n">
+        <v>58</v>
+      </c>
+      <c r="HJ99" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65252,6 +66143,15 @@
       <c r="HG100" t="n">
         <v>4</v>
       </c>
+      <c r="HH100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI100" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65901,6 +66801,15 @@
       <c r="HG101" t="n">
         <v>6</v>
       </c>
+      <c r="HH101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI101" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66550,8 +67459,17 @@
       <c r="HG102" t="n">
         <v>46.2</v>
       </c>
+      <c r="HH102" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="HI102" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="HJ102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/West Coast_stats.xlsx
+++ b/West Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HJ102"/>
+  <dimension ref="A1:HK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,6 +1010,9 @@
       <c r="HJ1" t="n">
         <v>10140</v>
       </c>
+      <c r="HK1" t="n">
+        <v>10146</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1668,6 +1671,9 @@
       <c r="HJ2" t="n">
         <v>2020</v>
       </c>
+      <c r="HK2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2326,6 +2332,9 @@
       <c r="HJ3" t="n">
         <v>3</v>
       </c>
+      <c r="HK3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2984,6 +2993,9 @@
       <c r="HJ4" t="n">
         <v>1</v>
       </c>
+      <c r="HK4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3642,6 +3654,9 @@
       <c r="HJ5" t="n">
         <v>0</v>
       </c>
+      <c r="HK5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4300,6 +4315,9 @@
       <c r="HJ6" t="n">
         <v>44</v>
       </c>
+      <c r="HK6" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4958,6 +4976,9 @@
       <c r="HJ7" t="n">
         <v>74</v>
       </c>
+      <c r="HK7" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5616,6 +5637,9 @@
       <c r="HJ8" t="n">
         <v>-30</v>
       </c>
+      <c r="HK8" t="n">
+        <v>-48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6274,6 +6298,9 @@
       <c r="HJ9" t="n">
         <v>0</v>
       </c>
+      <c r="HK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6932,6 +6959,9 @@
       <c r="HJ10" t="n">
         <v>2</v>
       </c>
+      <c r="HK10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7590,6 +7620,9 @@
       <c r="HJ11" t="n">
         <v>159</v>
       </c>
+      <c r="HK11" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8248,6 +8281,9 @@
       <c r="HJ12" t="n">
         <v>87</v>
       </c>
+      <c r="HK12" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8906,6 +8942,9 @@
       <c r="HJ13" t="n">
         <v>246</v>
       </c>
+      <c r="HK13" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9564,6 +9603,9 @@
       <c r="HJ14" t="n">
         <v>1.83</v>
       </c>
+      <c r="HK14" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10222,6 +10264,9 @@
       <c r="HJ15" t="n">
         <v>47</v>
       </c>
+      <c r="HK15" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10880,6 +10925,9 @@
       <c r="HJ16" t="n">
         <v>52</v>
       </c>
+      <c r="HK16" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11538,6 +11586,9 @@
       <c r="HJ17" t="n">
         <v>41</v>
       </c>
+      <c r="HK17" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12196,6 +12247,9 @@
       <c r="HJ18" t="n">
         <v>15</v>
       </c>
+      <c r="HK18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12854,6 +12908,9 @@
       <c r="HJ19" t="n">
         <v>20</v>
       </c>
+      <c r="HK19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13512,6 +13569,9 @@
       <c r="HJ20" t="n">
         <v>6</v>
       </c>
+      <c r="HK20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14170,6 +14230,9 @@
       <c r="HJ21" t="n">
         <v>5</v>
       </c>
+      <c r="HK21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14828,6 +14891,9 @@
       <c r="HJ22" t="n">
         <v>4</v>
       </c>
+      <c r="HK22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15486,6 +15552,9 @@
       <c r="HJ23" t="n">
         <v>4</v>
       </c>
+      <c r="HK23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16144,6 +16213,9 @@
       <c r="HJ24" t="n">
         <v>14</v>
       </c>
+      <c r="HK24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16802,6 +16874,9 @@
       <c r="HJ25" t="n">
         <v>42.9</v>
       </c>
+      <c r="HK25" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17460,6 +17535,9 @@
       <c r="HJ26" t="n">
         <v>41</v>
       </c>
+      <c r="HK26" t="n">
+        <v>46.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18118,6 +18196,9 @@
       <c r="HJ27" t="n">
         <v>17.57</v>
       </c>
+      <c r="HK27" t="n">
+        <v>25.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18776,6 +18857,9 @@
       <c r="HJ28" t="n">
         <v>33</v>
       </c>
+      <c r="HK28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19434,6 +19518,9 @@
       <c r="HJ29" t="n">
         <v>52</v>
       </c>
+      <c r="HK29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20092,6 +20179,9 @@
       <c r="HJ30" t="n">
         <v>39</v>
       </c>
+      <c r="HK30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20750,6 +20840,9 @@
       <c r="HJ31" t="n">
         <v>34</v>
       </c>
+      <c r="HK31" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21408,6 +21501,9 @@
       <c r="HJ32" t="n">
         <v>2.43</v>
       </c>
+      <c r="HK32" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22066,6 +22162,9 @@
       <c r="HJ33" t="n">
         <v>5.67</v>
       </c>
+      <c r="HK33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22724,6 +22823,9 @@
       <c r="HJ34" t="n">
         <v>29.4</v>
       </c>
+      <c r="HK34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23382,6 +23484,9 @@
       <c r="HJ35" t="n">
         <v>17.6</v>
       </c>
+      <c r="HK35" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24040,6 +24145,9 @@
       <c r="HJ36" t="n">
         <v>188.6</v>
       </c>
+      <c r="HK36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24698,6 +24806,9 @@
       <c r="HJ37" t="n">
         <v>88.5</v>
       </c>
+      <c r="HK37" t="n">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25356,6 +25467,9 @@
       <c r="HJ38" t="n">
         <v>27</v>
       </c>
+      <c r="HK38" t="n">
+        <v>27.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26014,6 +26128,9 @@
       <c r="HJ39" t="n">
         <v>129.6</v>
       </c>
+      <c r="HK39" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26672,6 +26789,9 @@
       <c r="HJ40" t="n">
         <v>6</v>
       </c>
+      <c r="HK40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27330,6 +27450,9 @@
       <c r="HJ41" t="n">
         <v>3</v>
       </c>
+      <c r="HK41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27988,6 +28111,9 @@
       <c r="HJ42" t="n">
         <v>1</v>
       </c>
+      <c r="HK42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28646,6 +28772,9 @@
       <c r="HJ43" t="n">
         <v>12</v>
       </c>
+      <c r="HK43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29304,6 +29433,9 @@
       <c r="HJ44" t="n">
         <v>118</v>
       </c>
+      <c r="HK44" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29962,6 +30094,9 @@
       <c r="HJ45" t="n">
         <v>120</v>
       </c>
+      <c r="HK45" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30620,6 +30755,9 @@
       <c r="HJ46" t="n">
         <v>151</v>
       </c>
+      <c r="HK46" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31278,6 +31416,9 @@
       <c r="HJ47" t="n">
         <v>61.4</v>
       </c>
+      <c r="HK47" t="n">
+        <v>66.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31936,6 +32077,9 @@
       <c r="HJ48" t="n">
         <v>52</v>
       </c>
+      <c r="HK48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32594,6 +32738,9 @@
       <c r="HJ49" t="n">
         <v>9</v>
       </c>
+      <c r="HK49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33252,6 +33399,9 @@
       <c r="HJ50" t="n">
         <v>8</v>
       </c>
+      <c r="HK50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33910,6 +34060,9 @@
       <c r="HJ51" t="n">
         <v>33</v>
       </c>
+      <c r="HK51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34568,6 +34721,9 @@
       <c r="HJ52" t="n">
         <v>39</v>
       </c>
+      <c r="HK52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35226,6 +35382,9 @@
       <c r="HJ53" t="n">
         <v>55</v>
       </c>
+      <c r="HK53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35884,6 +36043,9 @@
       <c r="HJ54" t="n">
         <v>1</v>
       </c>
+      <c r="HK54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36542,6 +36704,9 @@
       <c r="HJ55" t="n">
         <v>5</v>
       </c>
+      <c r="HK55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37200,6 +37365,9 @@
       <c r="HJ56" t="n">
         <v>83.3</v>
       </c>
+      <c r="HK56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37858,6 +38026,9 @@
       <c r="HJ57" t="n">
         <v>188</v>
       </c>
+      <c r="HK57" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38516,6 +38687,9 @@
       <c r="HJ58" t="n">
         <v>94</v>
       </c>
+      <c r="HK58" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39174,6 +39348,9 @@
       <c r="HJ59" t="n">
         <v>282</v>
       </c>
+      <c r="HK59" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39832,6 +40009,9 @@
       <c r="HJ60" t="n">
         <v>2</v>
       </c>
+      <c r="HK60" t="n">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40490,6 +40670,9 @@
       <c r="HJ61" t="n">
         <v>64</v>
       </c>
+      <c r="HK61" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41148,6 +41331,9 @@
       <c r="HJ62" t="n">
         <v>57</v>
       </c>
+      <c r="HK62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41806,6 +41992,9 @@
       <c r="HJ63" t="n">
         <v>30</v>
       </c>
+      <c r="HK63" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42464,6 +42653,9 @@
       <c r="HJ64" t="n">
         <v>20</v>
       </c>
+      <c r="HK64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43122,6 +43314,9 @@
       <c r="HJ65" t="n">
         <v>15</v>
       </c>
+      <c r="HK65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43780,6 +43975,9 @@
       <c r="HJ66" t="n">
         <v>10</v>
       </c>
+      <c r="HK66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44438,6 +44636,9 @@
       <c r="HJ67" t="n">
         <v>5</v>
       </c>
+      <c r="HK67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45096,6 +45297,9 @@
       <c r="HJ68" t="n">
         <v>12</v>
       </c>
+      <c r="HK68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45754,6 +45958,9 @@
       <c r="HJ69" t="n">
         <v>2</v>
       </c>
+      <c r="HK69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46412,6 +46619,9 @@
       <c r="HJ70" t="n">
         <v>24</v>
       </c>
+      <c r="HK70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47070,6 +47280,9 @@
       <c r="HJ71" t="n">
         <v>41.7</v>
       </c>
+      <c r="HK71" t="n">
+        <v>54.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47728,6 +47941,9 @@
       <c r="HJ72" t="n">
         <v>28.2</v>
       </c>
+      <c r="HK72" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48386,6 +48602,9 @@
       <c r="HJ73" t="n">
         <v>11.75</v>
       </c>
+      <c r="HK73" t="n">
+        <v>12.75</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49044,6 +49263,9 @@
       <c r="HJ74" t="n">
         <v>39</v>
       </c>
+      <c r="HK74" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49702,6 +49924,9 @@
       <c r="HJ75" t="n">
         <v>40</v>
       </c>
+      <c r="HK75" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50360,6 +50585,9 @@
       <c r="HJ76" t="n">
         <v>27</v>
       </c>
+      <c r="HK76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51018,6 +51246,9 @@
       <c r="HJ77" t="n">
         <v>50</v>
       </c>
+      <c r="HK77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51676,6 +51907,9 @@
       <c r="HJ78" t="n">
         <v>2.08</v>
       </c>
+      <c r="HK78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52334,6 +52568,9 @@
       <c r="HJ79" t="n">
         <v>5</v>
       </c>
+      <c r="HK79" t="n">
+        <v>3.69</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52992,6 +53229,9 @@
       <c r="HJ80" t="n">
         <v>44</v>
       </c>
+      <c r="HK80" t="n">
+        <v>47.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53650,6 +53890,9 @@
       <c r="HJ81" t="n">
         <v>20</v>
       </c>
+      <c r="HK81" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54308,6 +54551,9 @@
       <c r="HJ82" t="n">
         <v>189.3</v>
       </c>
+      <c r="HK82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54966,6 +55212,9 @@
       <c r="HJ83" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HK83" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55624,6 +55873,9 @@
       <c r="HJ84" t="n">
         <v>25.16</v>
       </c>
+      <c r="HK84" t="n">
+        <v>26.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56282,6 +56534,9 @@
       <c r="HJ85" t="n">
         <v>89.90000000000001</v>
       </c>
+      <c r="HK85" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56940,6 +57195,9 @@
       <c r="HJ86" t="n">
         <v>8</v>
       </c>
+      <c r="HK86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57598,6 +57856,9 @@
       <c r="HJ87" t="n">
         <v>4</v>
       </c>
+      <c r="HK87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58256,6 +58517,9 @@
       <c r="HJ88" t="n">
         <v>6</v>
       </c>
+      <c r="HK88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58914,6 +59178,9 @@
       <c r="HJ89" t="n">
         <v>4</v>
       </c>
+      <c r="HK89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59572,6 +59839,9 @@
       <c r="HJ90" t="n">
         <v>133</v>
       </c>
+      <c r="HK90" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60230,6 +60500,9 @@
       <c r="HJ91" t="n">
         <v>133</v>
       </c>
+      <c r="HK91" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60888,6 +61161,9 @@
       <c r="HJ92" t="n">
         <v>174</v>
       </c>
+      <c r="HK92" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61546,6 +61822,9 @@
       <c r="HJ93" t="n">
         <v>61.7</v>
       </c>
+      <c r="HK93" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62204,6 +62483,9 @@
       <c r="HJ94" t="n">
         <v>40</v>
       </c>
+      <c r="HK94" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62862,6 +63144,9 @@
       <c r="HJ95" t="n">
         <v>4</v>
       </c>
+      <c r="HK95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63520,6 +63805,9 @@
       <c r="HJ96" t="n">
         <v>8</v>
       </c>
+      <c r="HK96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64178,6 +64466,9 @@
       <c r="HJ97" t="n">
         <v>39</v>
       </c>
+      <c r="HK97" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64836,6 +65127,9 @@
       <c r="HJ98" t="n">
         <v>27</v>
       </c>
+      <c r="HK98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65494,6 +65788,9 @@
       <c r="HJ99" t="n">
         <v>57</v>
       </c>
+      <c r="HK99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66152,6 +66449,9 @@
       <c r="HJ100" t="n">
         <v>0</v>
       </c>
+      <c r="HK100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66810,6 +67110,9 @@
       <c r="HJ101" t="n">
         <v>5</v>
       </c>
+      <c r="HK101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67468,8 +67771,11 @@
       <c r="HJ102" t="n">
         <v>50</v>
       </c>
+      <c r="HK102" t="n">
+        <v>53.8</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/West Coast_stats.xlsx
+++ b/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HK102"/>
+  <dimension ref="A1:HL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,9 @@
       <c r="HK1" t="n">
         <v>10146</v>
       </c>
+      <c r="HL1" t="n">
+        <v>10184</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1674,6 +1677,9 @@
       <c r="HK2" t="n">
         <v>2020</v>
       </c>
+      <c r="HL2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2335,6 +2341,9 @@
       <c r="HK3" t="n">
         <v>4</v>
       </c>
+      <c r="HL3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2996,6 +3005,9 @@
       <c r="HK4" t="n">
         <v>1</v>
       </c>
+      <c r="HL4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3657,6 +3669,9 @@
       <c r="HK5" t="n">
         <v>0</v>
       </c>
+      <c r="HL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4318,6 +4333,9 @@
       <c r="HK6" t="n">
         <v>41</v>
       </c>
+      <c r="HL6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4979,6 +4997,9 @@
       <c r="HK7" t="n">
         <v>89</v>
       </c>
+      <c r="HL7" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5640,6 +5661,9 @@
       <c r="HK8" t="n">
         <v>-48</v>
       </c>
+      <c r="HL8" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6301,6 +6325,9 @@
       <c r="HK9" t="n">
         <v>0</v>
       </c>
+      <c r="HL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6962,6 +6989,9 @@
       <c r="HK10" t="n">
         <v>13</v>
       </c>
+      <c r="HL10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7623,6 +7653,9 @@
       <c r="HK11" t="n">
         <v>175</v>
       </c>
+      <c r="HL11" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8284,6 +8317,9 @@
       <c r="HK12" t="n">
         <v>103</v>
       </c>
+      <c r="HL12" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8945,6 +8981,9 @@
       <c r="HK13" t="n">
         <v>278</v>
       </c>
+      <c r="HL13" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9606,6 +9645,9 @@
       <c r="HK14" t="n">
         <v>1.7</v>
       </c>
+      <c r="HL14" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10267,6 +10309,9 @@
       <c r="HK15" t="n">
         <v>71</v>
       </c>
+      <c r="HL15" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +10973,9 @@
       <c r="HK16" t="n">
         <v>36</v>
       </c>
+      <c r="HL16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11589,6 +11637,9 @@
       <c r="HK17" t="n">
         <v>36</v>
       </c>
+      <c r="HL17" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12250,6 +12301,9 @@
       <c r="HK18" t="n">
         <v>10</v>
       </c>
+      <c r="HL18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12911,6 +12965,9 @@
       <c r="HK19" t="n">
         <v>15</v>
       </c>
+      <c r="HL19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13572,6 +13629,9 @@
       <c r="HK20" t="n">
         <v>6</v>
       </c>
+      <c r="HL20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14233,6 +14293,9 @@
       <c r="HK21" t="n">
         <v>3</v>
       </c>
+      <c r="HL21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14894,6 +14957,9 @@
       <c r="HK22" t="n">
         <v>3</v>
       </c>
+      <c r="HL22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15555,6 +15621,9 @@
       <c r="HK23" t="n">
         <v>2</v>
       </c>
+      <c r="HL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16216,6 +16285,9 @@
       <c r="HK24" t="n">
         <v>11</v>
       </c>
+      <c r="HL24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16877,6 +16949,9 @@
       <c r="HK25" t="n">
         <v>54.5</v>
       </c>
+      <c r="HL25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17538,6 +17613,9 @@
       <c r="HK26" t="n">
         <v>46.33</v>
       </c>
+      <c r="HL26" t="n">
+        <v>27.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18199,6 +18277,9 @@
       <c r="HK27" t="n">
         <v>25.27</v>
       </c>
+      <c r="HL27" t="n">
+        <v>13.55</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18860,6 +18941,9 @@
       <c r="HK28" t="n">
         <v>36</v>
       </c>
+      <c r="HL28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19521,6 +19605,9 @@
       <c r="HK29" t="n">
         <v>47</v>
       </c>
+      <c r="HL29" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20182,6 +20269,9 @@
       <c r="HK30" t="n">
         <v>35</v>
       </c>
+      <c r="HL30" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20843,6 +20933,9 @@
       <c r="HK31" t="n">
         <v>36</v>
       </c>
+      <c r="HL31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21504,6 +21597,9 @@
       <c r="HK32" t="n">
         <v>3.27</v>
       </c>
+      <c r="HL32" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22165,6 +22261,9 @@
       <c r="HK33" t="n">
         <v>6</v>
       </c>
+      <c r="HL33" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22826,6 +22925,9 @@
       <c r="HK34" t="n">
         <v>25</v>
       </c>
+      <c r="HL34" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23487,6 +23589,9 @@
       <c r="HK35" t="n">
         <v>16.7</v>
       </c>
+      <c r="HL35" t="n">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24148,6 +24253,9 @@
       <c r="HK36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HL36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24809,6 +24917,9 @@
       <c r="HK37" t="n">
         <v>88.7</v>
       </c>
+      <c r="HL37" t="n">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25470,6 +25581,9 @@
       <c r="HK38" t="n">
         <v>27.41</v>
       </c>
+      <c r="HL38" t="n">
+        <v>26.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26131,6 +26245,9 @@
       <c r="HK39" t="n">
         <v>134.8</v>
       </c>
+      <c r="HL39" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26792,6 +26909,9 @@
       <c r="HK40" t="n">
         <v>5</v>
       </c>
+      <c r="HL40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27453,6 +27573,9 @@
       <c r="HK41" t="n">
         <v>3</v>
       </c>
+      <c r="HL41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28114,6 +28237,9 @@
       <c r="HK42" t="n">
         <v>2</v>
       </c>
+      <c r="HL42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28775,6 +28901,9 @@
       <c r="HK43" t="n">
         <v>12</v>
       </c>
+      <c r="HL43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29436,6 +29565,9 @@
       <c r="HK44" t="n">
         <v>117</v>
       </c>
+      <c r="HL44" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30097,6 +30229,9 @@
       <c r="HK45" t="n">
         <v>157</v>
       </c>
+      <c r="HL45" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30758,6 +30893,9 @@
       <c r="HK46" t="n">
         <v>186</v>
       </c>
+      <c r="HL46" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31419,6 +31557,9 @@
       <c r="HK47" t="n">
         <v>66.90000000000001</v>
       </c>
+      <c r="HL47" t="n">
+        <v>72.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32080,6 +32221,9 @@
       <c r="HK48" t="n">
         <v>47</v>
       </c>
+      <c r="HL48" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32741,6 +32885,9 @@
       <c r="HK49" t="n">
         <v>11</v>
       </c>
+      <c r="HL49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33402,6 +33549,9 @@
       <c r="HK50" t="n">
         <v>6</v>
       </c>
+      <c r="HL50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34063,6 +34213,9 @@
       <c r="HK51" t="n">
         <v>36</v>
       </c>
+      <c r="HL51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34724,6 +34877,9 @@
       <c r="HK52" t="n">
         <v>35</v>
       </c>
+      <c r="HL52" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35385,6 +35541,9 @@
       <c r="HK53" t="n">
         <v>51</v>
       </c>
+      <c r="HL53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36046,6 +36205,9 @@
       <c r="HK54" t="n">
         <v>4</v>
       </c>
+      <c r="HL54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36707,6 +36869,9 @@
       <c r="HK55" t="n">
         <v>3</v>
       </c>
+      <c r="HL55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37368,6 +37533,9 @@
       <c r="HK56" t="n">
         <v>50</v>
       </c>
+      <c r="HL56" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38029,6 +38197,9 @@
       <c r="HK57" t="n">
         <v>199</v>
       </c>
+      <c r="HL57" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38690,6 +38861,9 @@
       <c r="HK58" t="n">
         <v>107</v>
       </c>
+      <c r="HL58" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39351,6 +39525,9 @@
       <c r="HK59" t="n">
         <v>306</v>
       </c>
+      <c r="HL59" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40012,6 +40189,9 @@
       <c r="HK60" t="n">
         <v>1.86</v>
       </c>
+      <c r="HL60" t="n">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40673,6 +40853,9 @@
       <c r="HK61" t="n">
         <v>90</v>
       </c>
+      <c r="HL61" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41334,6 +41517,9 @@
       <c r="HK62" t="n">
         <v>50</v>
       </c>
+      <c r="HL62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41995,6 +42181,9 @@
       <c r="HK63" t="n">
         <v>17</v>
       </c>
+      <c r="HL63" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42656,6 +42845,9 @@
       <c r="HK64" t="n">
         <v>15</v>
       </c>
+      <c r="HL64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43317,6 +43509,9 @@
       <c r="HK65" t="n">
         <v>10</v>
       </c>
+      <c r="HL65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43978,6 +44173,9 @@
       <c r="HK66" t="n">
         <v>13</v>
       </c>
+      <c r="HL66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44639,6 +44837,9 @@
       <c r="HK67" t="n">
         <v>7</v>
       </c>
+      <c r="HL67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45300,6 +45501,9 @@
       <c r="HK68" t="n">
         <v>10</v>
       </c>
+      <c r="HL68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45961,6 +46165,9 @@
       <c r="HK69" t="n">
         <v>1</v>
       </c>
+      <c r="HL69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46622,6 +46829,9 @@
       <c r="HK70" t="n">
         <v>24</v>
       </c>
+      <c r="HL70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47283,6 +47493,9 @@
       <c r="HK71" t="n">
         <v>54.2</v>
       </c>
+      <c r="HL71" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47944,6 +48157,9 @@
       <c r="HK72" t="n">
         <v>23.54</v>
       </c>
+      <c r="HL72" t="n">
+        <v>48.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48605,6 +48821,9 @@
       <c r="HK73" t="n">
         <v>12.75</v>
       </c>
+      <c r="HL73" t="n">
+        <v>22.46</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49266,6 +49485,9 @@
       <c r="HK74" t="n">
         <v>23</v>
       </c>
+      <c r="HL74" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49927,6 +50149,9 @@
       <c r="HK75" t="n">
         <v>37</v>
       </c>
+      <c r="HL75" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50588,6 +50813,9 @@
       <c r="HK76" t="n">
         <v>30</v>
       </c>
+      <c r="HL76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51249,6 +51477,9 @@
       <c r="HK77" t="n">
         <v>48</v>
       </c>
+      <c r="HL77" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51910,6 +52141,9 @@
       <c r="HK78" t="n">
         <v>2</v>
       </c>
+      <c r="HL78" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52571,6 +52805,9 @@
       <c r="HK79" t="n">
         <v>3.69</v>
       </c>
+      <c r="HL79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53232,6 +53469,9 @@
       <c r="HK80" t="n">
         <v>47.9</v>
       </c>
+      <c r="HL80" t="n">
+        <v>43.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53893,6 +54133,9 @@
       <c r="HK81" t="n">
         <v>27.1</v>
       </c>
+      <c r="HL81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54554,6 +54797,9 @@
       <c r="HK82" t="n">
         <v>188.2</v>
       </c>
+      <c r="HL82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55215,6 +55461,9 @@
       <c r="HK83" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HL83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55876,6 +56125,9 @@
       <c r="HK84" t="n">
         <v>26.66</v>
       </c>
+      <c r="HL84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56537,6 +56789,9 @@
       <c r="HK85" t="n">
         <v>121.6</v>
       </c>
+      <c r="HL85" t="n">
+        <v>79.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57198,6 +57453,9 @@
       <c r="HK86" t="n">
         <v>5</v>
       </c>
+      <c r="HL86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57859,6 +58117,9 @@
       <c r="HK87" t="n">
         <v>6</v>
       </c>
+      <c r="HL87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58520,6 +58781,9 @@
       <c r="HK88" t="n">
         <v>4</v>
       </c>
+      <c r="HL88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59181,6 +59445,9 @@
       <c r="HK89" t="n">
         <v>7</v>
       </c>
+      <c r="HL89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59842,6 +60109,9 @@
       <c r="HK90" t="n">
         <v>117</v>
       </c>
+      <c r="HL90" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60503,6 +60773,9 @@
       <c r="HK91" t="n">
         <v>182</v>
       </c>
+      <c r="HL91" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61164,6 +61437,9 @@
       <c r="HK92" t="n">
         <v>230</v>
       </c>
+      <c r="HL92" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61825,6 +62101,9 @@
       <c r="HK93" t="n">
         <v>75.2</v>
       </c>
+      <c r="HL93" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62486,6 +62765,9 @@
       <c r="HK94" t="n">
         <v>37</v>
       </c>
+      <c r="HL94" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63147,6 +63429,9 @@
       <c r="HK95" t="n">
         <v>15</v>
       </c>
+      <c r="HL95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63808,6 +64093,9 @@
       <c r="HK96" t="n">
         <v>12</v>
       </c>
+      <c r="HL96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64469,6 +64757,9 @@
       <c r="HK97" t="n">
         <v>23</v>
       </c>
+      <c r="HL97" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65130,6 +65421,9 @@
       <c r="HK98" t="n">
         <v>30</v>
       </c>
+      <c r="HL98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65791,6 +66085,9 @@
       <c r="HK99" t="n">
         <v>35</v>
       </c>
+      <c r="HL99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66452,6 +66749,9 @@
       <c r="HK100" t="n">
         <v>3</v>
       </c>
+      <c r="HL100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67113,6 +67413,9 @@
       <c r="HK101" t="n">
         <v>7</v>
       </c>
+      <c r="HL101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67774,6 +68077,9 @@
       <c r="HK102" t="n">
         <v>53.8</v>
       </c>
+      <c r="HL102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/West Coast_stats.xlsx
+++ b/West Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1016,15 @@
       <c r="HL1" t="n">
         <v>10184</v>
       </c>
+      <c r="HM1" t="n">
+        <v>10212</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>10225</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>10233</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1680,6 +1689,15 @@
       <c r="HL2" t="n">
         <v>2020</v>
       </c>
+      <c r="HM2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2344,6 +2362,15 @@
       <c r="HL3" t="n">
         <v>5</v>
       </c>
+      <c r="HM3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3008,6 +3035,15 @@
       <c r="HL4" t="n">
         <v>0</v>
       </c>
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3672,6 +3708,15 @@
       <c r="HL5" t="n">
         <v>0</v>
       </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4336,6 +4381,15 @@
       <c r="HL6" t="n">
         <v>77</v>
       </c>
+      <c r="HM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>62</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5000,6 +5054,15 @@
       <c r="HL7" t="n">
         <v>43</v>
       </c>
+      <c r="HM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>32</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5664,6 +5727,15 @@
       <c r="HL8" t="n">
         <v>34</v>
       </c>
+      <c r="HM8" t="n">
+        <v>33</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>30</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6328,6 +6400,15 @@
       <c r="HL9" t="n">
         <v>1</v>
       </c>
+      <c r="HM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6992,6 +7073,15 @@
       <c r="HL10" t="n">
         <v>16</v>
       </c>
+      <c r="HM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7656,6 +7746,15 @@
       <c r="HL11" t="n">
         <v>194</v>
       </c>
+      <c r="HM11" t="n">
+        <v>180</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>210</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8320,6 +8419,15 @@
       <c r="HL12" t="n">
         <v>104</v>
       </c>
+      <c r="HM12" t="n">
+        <v>104</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>115</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8984,6 +9092,15 @@
       <c r="HL13" t="n">
         <v>298</v>
       </c>
+      <c r="HM13" t="n">
+        <v>284</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>325</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9648,6 +9765,15 @@
       <c r="HL14" t="n">
         <v>1.87</v>
       </c>
+      <c r="HM14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="HO14" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10312,6 +10438,15 @@
       <c r="HL15" t="n">
         <v>92</v>
       </c>
+      <c r="HM15" t="n">
+        <v>90</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>111</v>
+      </c>
+      <c r="HO15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10976,6 +11111,15 @@
       <c r="HL16" t="n">
         <v>50</v>
       </c>
+      <c r="HM16" t="n">
+        <v>44</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>45</v>
+      </c>
+      <c r="HO16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11640,6 +11784,15 @@
       <c r="HL17" t="n">
         <v>46</v>
       </c>
+      <c r="HM17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>25</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12304,6 +12457,15 @@
       <c r="HL18" t="n">
         <v>15</v>
       </c>
+      <c r="HM18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12968,6 +13130,15 @@
       <c r="HL19" t="n">
         <v>13</v>
       </c>
+      <c r="HM19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13632,6 +13803,15 @@
       <c r="HL20" t="n">
         <v>11</v>
       </c>
+      <c r="HM20" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14296,6 +14476,15 @@
       <c r="HL21" t="n">
         <v>6</v>
       </c>
+      <c r="HM21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14960,6 +15149,15 @@
       <c r="HL22" t="n">
         <v>11</v>
       </c>
+      <c r="HM22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15624,6 +15822,15 @@
       <c r="HL23" t="n">
         <v>0</v>
       </c>
+      <c r="HM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16288,6 +16495,15 @@
       <c r="HL24" t="n">
         <v>22</v>
       </c>
+      <c r="HM24" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>17</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16952,6 +17168,15 @@
       <c r="HL25" t="n">
         <v>50</v>
       </c>
+      <c r="HM25" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="HO25" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17616,6 +17841,15 @@
       <c r="HL26" t="n">
         <v>27.09</v>
       </c>
+      <c r="HM26" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="HO26" t="n">
+        <v>16.61</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18280,6 +18514,15 @@
       <c r="HL27" t="n">
         <v>13.55</v>
       </c>
+      <c r="HM27" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>14.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18944,6 +19187,15 @@
       <c r="HL28" t="n">
         <v>36</v>
       </c>
+      <c r="HM28" t="n">
+        <v>28</v>
+      </c>
+      <c r="HN28" t="n">
+        <v>28</v>
+      </c>
+      <c r="HO28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19608,6 +19860,15 @@
       <c r="HL29" t="n">
         <v>30</v>
       </c>
+      <c r="HM29" t="n">
+        <v>44</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>31</v>
+      </c>
+      <c r="HO29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20272,6 +20533,15 @@
       <c r="HL30" t="n">
         <v>23</v>
       </c>
+      <c r="HM30" t="n">
+        <v>19</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>21</v>
+      </c>
+      <c r="HO30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20936,6 +21206,15 @@
       <c r="HL31" t="n">
         <v>47</v>
       </c>
+      <c r="HM31" t="n">
+        <v>49</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>41</v>
+      </c>
+      <c r="HO31" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21600,6 +21879,15 @@
       <c r="HL32" t="n">
         <v>2.14</v>
       </c>
+      <c r="HM32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="HO32" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22264,6 +22552,15 @@
       <c r="HL33" t="n">
         <v>4.27</v>
       </c>
+      <c r="HM33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="HO33" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22928,6 +23225,15 @@
       <c r="HL34" t="n">
         <v>46.8</v>
       </c>
+      <c r="HM34" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="HO34" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23592,6 +23898,15 @@
       <c r="HL35" t="n">
         <v>23.4</v>
       </c>
+      <c r="HM35" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="HN35" t="n">
+        <v>22</v>
+      </c>
+      <c r="HO35" t="n">
+        <v>51.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24256,6 +24571,15 @@
       <c r="HL36" t="n">
         <v>188.1</v>
       </c>
+      <c r="HM36" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HN36" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HO36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24920,6 +25244,15 @@
       <c r="HL37" t="n">
         <v>88.7</v>
       </c>
+      <c r="HM37" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HN37" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HO37" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25584,6 +25917,15 @@
       <c r="HL38" t="n">
         <v>26.66</v>
       </c>
+      <c r="HM38" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="HN38" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="HO38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26248,6 +26590,15 @@
       <c r="HL39" t="n">
         <v>124</v>
       </c>
+      <c r="HM39" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="HN39" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="HO39" t="n">
+        <v>119.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26912,6 +27263,15 @@
       <c r="HL40" t="n">
         <v>6</v>
       </c>
+      <c r="HM40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27576,6 +27936,15 @@
       <c r="HL41" t="n">
         <v>4</v>
       </c>
+      <c r="HM41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28240,6 +28609,15 @@
       <c r="HL42" t="n">
         <v>2</v>
       </c>
+      <c r="HM42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28904,6 +29282,15 @@
       <c r="HL43" t="n">
         <v>10</v>
       </c>
+      <c r="HM43" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN43" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29568,6 +29955,15 @@
       <c r="HL44" t="n">
         <v>122</v>
       </c>
+      <c r="HM44" t="n">
+        <v>100</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>122</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30232,6 +30628,15 @@
       <c r="HL45" t="n">
         <v>177</v>
       </c>
+      <c r="HM45" t="n">
+        <v>190</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>208</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30896,6 +31301,15 @@
       <c r="HL46" t="n">
         <v>215</v>
       </c>
+      <c r="HM46" t="n">
+        <v>219</v>
+      </c>
+      <c r="HN46" t="n">
+        <v>253</v>
+      </c>
+      <c r="HO46" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31560,6 +31974,15 @@
       <c r="HL47" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="HM47" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="HN47" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HO47" t="n">
+        <v>77.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32224,6 +32647,15 @@
       <c r="HL48" t="n">
         <v>30</v>
       </c>
+      <c r="HM48" t="n">
+        <v>44</v>
+      </c>
+      <c r="HN48" t="n">
+        <v>31</v>
+      </c>
+      <c r="HO48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32888,6 +33320,15 @@
       <c r="HL49" t="n">
         <v>11</v>
       </c>
+      <c r="HM49" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN49" t="n">
+        <v>14</v>
+      </c>
+      <c r="HO49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33552,6 +33993,15 @@
       <c r="HL50" t="n">
         <v>10</v>
       </c>
+      <c r="HM50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34216,6 +34666,15 @@
       <c r="HL51" t="n">
         <v>36</v>
       </c>
+      <c r="HM51" t="n">
+        <v>28</v>
+      </c>
+      <c r="HN51" t="n">
+        <v>28</v>
+      </c>
+      <c r="HO51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34880,6 +35339,15 @@
       <c r="HL52" t="n">
         <v>23</v>
       </c>
+      <c r="HM52" t="n">
+        <v>19</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>21</v>
+      </c>
+      <c r="HO52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35544,6 +36012,15 @@
       <c r="HL53" t="n">
         <v>39</v>
       </c>
+      <c r="HM53" t="n">
+        <v>41</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>52</v>
+      </c>
+      <c r="HO53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36208,6 +36685,15 @@
       <c r="HL54" t="n">
         <v>3</v>
       </c>
+      <c r="HM54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36872,6 +37358,15 @@
       <c r="HL55" t="n">
         <v>6</v>
       </c>
+      <c r="HM55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN55" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37536,6 +38031,15 @@
       <c r="HL56" t="n">
         <v>54.5</v>
       </c>
+      <c r="HM56" t="n">
+        <v>60</v>
+      </c>
+      <c r="HN56" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="HO56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38200,6 +38704,15 @@
       <c r="HL57" t="n">
         <v>149</v>
       </c>
+      <c r="HM57" t="n">
+        <v>180</v>
+      </c>
+      <c r="HN57" t="n">
+        <v>154</v>
+      </c>
+      <c r="HO57" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38864,6 +39377,15 @@
       <c r="HL58" t="n">
         <v>143</v>
       </c>
+      <c r="HM58" t="n">
+        <v>144</v>
+      </c>
+      <c r="HN58" t="n">
+        <v>124</v>
+      </c>
+      <c r="HO58" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39528,6 +40050,15 @@
       <c r="HL59" t="n">
         <v>292</v>
       </c>
+      <c r="HM59" t="n">
+        <v>324</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>278</v>
+      </c>
+      <c r="HO59" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40192,6 +40723,15 @@
       <c r="HL60" t="n">
         <v>1.04</v>
       </c>
+      <c r="HM60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="HO60" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40856,6 +41396,15 @@
       <c r="HL61" t="n">
         <v>67</v>
       </c>
+      <c r="HM61" t="n">
+        <v>102</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>68</v>
+      </c>
+      <c r="HO61" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41520,6 +42069,15 @@
       <c r="HL62" t="n">
         <v>47</v>
       </c>
+      <c r="HM62" t="n">
+        <v>41</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>46</v>
+      </c>
+      <c r="HO62" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42184,6 +42742,15 @@
       <c r="HL63" t="n">
         <v>10</v>
       </c>
+      <c r="HM63" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>22</v>
+      </c>
+      <c r="HO63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42848,6 +43415,15 @@
       <c r="HL64" t="n">
         <v>13</v>
       </c>
+      <c r="HM64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43512,6 +44088,15 @@
       <c r="HL65" t="n">
         <v>15</v>
       </c>
+      <c r="HM65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44176,6 +44761,15 @@
       <c r="HL66" t="n">
         <v>6</v>
       </c>
+      <c r="HM66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44840,6 +45434,15 @@
       <c r="HL67" t="n">
         <v>6</v>
       </c>
+      <c r="HM67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45504,6 +46107,15 @@
       <c r="HL68" t="n">
         <v>7</v>
       </c>
+      <c r="HM68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46168,6 +46780,15 @@
       <c r="HL69" t="n">
         <v>0</v>
       </c>
+      <c r="HM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46832,6 +47453,15 @@
       <c r="HL70" t="n">
         <v>13</v>
       </c>
+      <c r="HM70" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN70" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47496,6 +48126,15 @@
       <c r="HL71" t="n">
         <v>46.2</v>
       </c>
+      <c r="HM71" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="HO71" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48160,6 +48799,15 @@
       <c r="HL72" t="n">
         <v>48.67</v>
       </c>
+      <c r="HM72" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="HN72" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HO72" t="n">
+        <v>45.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48824,6 +49472,15 @@
       <c r="HL73" t="n">
         <v>22.46</v>
       </c>
+      <c r="HM73" t="n">
+        <v>36</v>
+      </c>
+      <c r="HN73" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="HO73" t="n">
+        <v>18.13</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49488,6 +50145,15 @@
       <c r="HL74" t="n">
         <v>23</v>
       </c>
+      <c r="HM74" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN74" t="n">
+        <v>23</v>
+      </c>
+      <c r="HO74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50152,6 +50818,15 @@
       <c r="HL75" t="n">
         <v>39</v>
       </c>
+      <c r="HM75" t="n">
+        <v>48</v>
+      </c>
+      <c r="HN75" t="n">
+        <v>41</v>
+      </c>
+      <c r="HO75" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50816,6 +51491,15 @@
       <c r="HL76" t="n">
         <v>36</v>
       </c>
+      <c r="HM76" t="n">
+        <v>38</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>31</v>
+      </c>
+      <c r="HO76" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51480,6 +52164,15 @@
       <c r="HL77" t="n">
         <v>30</v>
       </c>
+      <c r="HM77" t="n">
+        <v>24</v>
+      </c>
+      <c r="HN77" t="n">
+        <v>26</v>
+      </c>
+      <c r="HO77" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52144,6 +52837,15 @@
       <c r="HL78" t="n">
         <v>2.31</v>
       </c>
+      <c r="HM78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="HN78" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="HO78" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52808,6 +53510,15 @@
       <c r="HL79" t="n">
         <v>5</v>
       </c>
+      <c r="HM79" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="HN79" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="HO79" t="n">
+        <v>6.17</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53472,6 +54183,15 @@
       <c r="HL80" t="n">
         <v>43.3</v>
       </c>
+      <c r="HM80" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="HN80" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="HO80" t="n">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54136,6 +54856,15 @@
       <c r="HL81" t="n">
         <v>20</v>
       </c>
+      <c r="HM81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="HN81" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="HO81" t="n">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54800,6 +55529,15 @@
       <c r="HL82" t="n">
         <v>186.9</v>
       </c>
+      <c r="HM82" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="HN82" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="HO82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55464,6 +56202,15 @@
       <c r="HL83" t="n">
         <v>84</v>
       </c>
+      <c r="HM83" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="HN83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HO83" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56128,6 +56875,15 @@
       <c r="HL84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HM84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HN84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="HO84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56792,6 +57548,15 @@
       <c r="HL85" t="n">
         <v>79.5</v>
       </c>
+      <c r="HM85" t="n">
+        <v>80</v>
+      </c>
+      <c r="HN85" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="HO85" t="n">
+        <v>83.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57456,6 +58221,15 @@
       <c r="HL86" t="n">
         <v>8</v>
       </c>
+      <c r="HM86" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58120,6 +58894,15 @@
       <c r="HL87" t="n">
         <v>7</v>
       </c>
+      <c r="HM87" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HO87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58784,6 +59567,15 @@
       <c r="HL88" t="n">
         <v>4</v>
       </c>
+      <c r="HM88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59448,6 +60240,15 @@
       <c r="HL89" t="n">
         <v>3</v>
       </c>
+      <c r="HM89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60112,6 +60913,15 @@
       <c r="HL90" t="n">
         <v>98</v>
       </c>
+      <c r="HM90" t="n">
+        <v>95</v>
+      </c>
+      <c r="HN90" t="n">
+        <v>113</v>
+      </c>
+      <c r="HO90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60776,6 +61586,15 @@
       <c r="HL91" t="n">
         <v>184</v>
       </c>
+      <c r="HM91" t="n">
+        <v>229</v>
+      </c>
+      <c r="HN91" t="n">
+        <v>168</v>
+      </c>
+      <c r="HO91" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61440,6 +62259,15 @@
       <c r="HL92" t="n">
         <v>218</v>
       </c>
+      <c r="HM92" t="n">
+        <v>248</v>
+      </c>
+      <c r="HN92" t="n">
+        <v>205</v>
+      </c>
+      <c r="HO92" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62104,6 +62932,15 @@
       <c r="HL93" t="n">
         <v>74.7</v>
       </c>
+      <c r="HM93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="HN93" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="HO93" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62768,6 +63605,15 @@
       <c r="HL94" t="n">
         <v>39</v>
       </c>
+      <c r="HM94" t="n">
+        <v>48</v>
+      </c>
+      <c r="HN94" t="n">
+        <v>41</v>
+      </c>
+      <c r="HO94" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63432,6 +64278,15 @@
       <c r="HL95" t="n">
         <v>8</v>
       </c>
+      <c r="HM95" t="n">
+        <v>8</v>
+      </c>
+      <c r="HN95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64096,6 +64951,15 @@
       <c r="HL96" t="n">
         <v>11</v>
       </c>
+      <c r="HM96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN96" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64760,6 +65624,15 @@
       <c r="HL97" t="n">
         <v>23</v>
       </c>
+      <c r="HM97" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN97" t="n">
+        <v>23</v>
+      </c>
+      <c r="HO97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65424,6 +66297,15 @@
       <c r="HL98" t="n">
         <v>36</v>
       </c>
+      <c r="HM98" t="n">
+        <v>38</v>
+      </c>
+      <c r="HN98" t="n">
+        <v>31</v>
+      </c>
+      <c r="HO98" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66088,6 +66970,15 @@
       <c r="HL99" t="n">
         <v>39</v>
       </c>
+      <c r="HM99" t="n">
+        <v>29</v>
+      </c>
+      <c r="HN99" t="n">
+        <v>41</v>
+      </c>
+      <c r="HO99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66752,6 +67643,15 @@
       <c r="HL100" t="n">
         <v>1</v>
       </c>
+      <c r="HM100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67416,6 +68316,15 @@
       <c r="HL101" t="n">
         <v>6</v>
       </c>
+      <c r="HM101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68080,6 +68989,15 @@
       <c r="HL102" t="n">
         <v>100</v>
       </c>
+      <c r="HM102" t="n">
+        <v>60</v>
+      </c>
+      <c r="HN102" t="n">
+        <v>80</v>
+      </c>
+      <c r="HO102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/West Coast_stats.xlsx
+++ b/West Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1025,9 @@
       <c r="HO1" t="n">
         <v>10233</v>
       </c>
+      <c r="HP1" t="n">
+        <v>10242</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1698,6 +1701,9 @@
       <c r="HO2" t="n">
         <v>2020</v>
       </c>
+      <c r="HP2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2371,6 +2377,9 @@
       <c r="HO3" t="n">
         <v>8</v>
       </c>
+      <c r="HP3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3044,6 +3053,9 @@
       <c r="HO4" t="n">
         <v>0</v>
       </c>
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3717,6 +3729,9 @@
       <c r="HO5" t="n">
         <v>0</v>
       </c>
+      <c r="HP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4390,6 +4405,9 @@
       <c r="HO6" t="n">
         <v>111</v>
       </c>
+      <c r="HP6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5063,6 +5081,9 @@
       <c r="HO7" t="n">
         <v>45</v>
       </c>
+      <c r="HP7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5736,6 +5757,9 @@
       <c r="HO8" t="n">
         <v>66</v>
       </c>
+      <c r="HP8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6409,6 +6433,9 @@
       <c r="HO9" t="n">
         <v>1</v>
       </c>
+      <c r="HP9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7082,6 +7109,9 @@
       <c r="HO10" t="n">
         <v>4</v>
       </c>
+      <c r="HP10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7755,6 +7785,9 @@
       <c r="HO11" t="n">
         <v>187</v>
       </c>
+      <c r="HP11" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8428,6 +8461,9 @@
       <c r="HO12" t="n">
         <v>112</v>
       </c>
+      <c r="HP12" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9101,6 +9137,9 @@
       <c r="HO13" t="n">
         <v>299</v>
       </c>
+      <c r="HP13" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9774,6 +9813,9 @@
       <c r="HO14" t="n">
         <v>1.67</v>
       </c>
+      <c r="HP14" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10447,6 +10489,9 @@
       <c r="HO15" t="n">
         <v>86</v>
       </c>
+      <c r="HP15" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11120,6 +11165,9 @@
       <c r="HO16" t="n">
         <v>48</v>
       </c>
+      <c r="HP16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11793,6 +11841,9 @@
       <c r="HO17" t="n">
         <v>28</v>
       </c>
+      <c r="HP17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12466,6 +12517,9 @@
       <c r="HO18" t="n">
         <v>21</v>
       </c>
+      <c r="HP18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13139,6 +13193,9 @@
       <c r="HO19" t="n">
         <v>21</v>
       </c>
+      <c r="HP19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13812,6 +13869,9 @@
       <c r="HO20" t="n">
         <v>18</v>
       </c>
+      <c r="HP20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14485,6 +14545,9 @@
       <c r="HO21" t="n">
         <v>10</v>
       </c>
+      <c r="HP21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15158,6 +15221,9 @@
       <c r="HO22" t="n">
         <v>3</v>
       </c>
+      <c r="HP22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15831,6 +15897,9 @@
       <c r="HO23" t="n">
         <v>0</v>
       </c>
+      <c r="HP23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16504,6 +16573,9 @@
       <c r="HO24" t="n">
         <v>21</v>
       </c>
+      <c r="HP24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17177,6 +17249,9 @@
       <c r="HO25" t="n">
         <v>85.7</v>
       </c>
+      <c r="HP25" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17850,6 +17925,9 @@
       <c r="HO26" t="n">
         <v>16.61</v>
       </c>
+      <c r="HP26" t="n">
+        <v>23.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18523,6 +18601,9 @@
       <c r="HO27" t="n">
         <v>14.24</v>
       </c>
+      <c r="HP27" t="n">
+        <v>14.33</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19196,6 +19277,9 @@
       <c r="HO28" t="n">
         <v>32</v>
       </c>
+      <c r="HP28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19869,6 +19953,9 @@
       <c r="HO29" t="n">
         <v>45</v>
       </c>
+      <c r="HP29" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20542,6 +20629,9 @@
       <c r="HO30" t="n">
         <v>30</v>
       </c>
+      <c r="HP30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21215,6 +21305,9 @@
       <c r="HO31" t="n">
         <v>35</v>
       </c>
+      <c r="HP31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21888,6 +21981,9 @@
       <c r="HO32" t="n">
         <v>1.67</v>
       </c>
+      <c r="HP32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22561,6 +22657,9 @@
       <c r="HO33" t="n">
         <v>1.94</v>
       </c>
+      <c r="HP33" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23234,6 +23333,9 @@
       <c r="HO34" t="n">
         <v>60</v>
       </c>
+      <c r="HP34" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23907,6 +24009,9 @@
       <c r="HO35" t="n">
         <v>51.4</v>
       </c>
+      <c r="HP35" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24580,6 +24685,9 @@
       <c r="HO36" t="n">
         <v>187.8</v>
       </c>
+      <c r="HP36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25253,6 +25361,9 @@
       <c r="HO37" t="n">
         <v>87.3</v>
       </c>
+      <c r="HP37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25926,6 +26037,9 @@
       <c r="HO38" t="n">
         <v>26.16</v>
       </c>
+      <c r="HP38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26599,6 +26713,9 @@
       <c r="HO39" t="n">
         <v>119.3</v>
       </c>
+      <c r="HP39" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27272,6 +27389,9 @@
       <c r="HO40" t="n">
         <v>7</v>
       </c>
+      <c r="HP40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27945,6 +28065,9 @@
       <c r="HO41" t="n">
         <v>4</v>
       </c>
+      <c r="HP41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28618,6 +28741,9 @@
       <c r="HO42" t="n">
         <v>1</v>
       </c>
+      <c r="HP42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29291,6 +29417,9 @@
       <c r="HO43" t="n">
         <v>10</v>
       </c>
+      <c r="HP43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29964,6 +30093,9 @@
       <c r="HO44" t="n">
         <v>104</v>
       </c>
+      <c r="HP44" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30637,6 +30769,9 @@
       <c r="HO45" t="n">
         <v>189</v>
       </c>
+      <c r="HP45" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31310,6 +31445,9 @@
       <c r="HO46" t="n">
         <v>233</v>
       </c>
+      <c r="HP46" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31983,6 +32121,9 @@
       <c r="HO47" t="n">
         <v>77.90000000000001</v>
       </c>
+      <c r="HP47" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32656,6 +32797,9 @@
       <c r="HO48" t="n">
         <v>45</v>
       </c>
+      <c r="HP48" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33329,6 +33473,9 @@
       <c r="HO49" t="n">
         <v>11</v>
       </c>
+      <c r="HP49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34002,6 +34149,9 @@
       <c r="HO50" t="n">
         <v>14</v>
       </c>
+      <c r="HP50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34675,6 +34825,9 @@
       <c r="HO51" t="n">
         <v>32</v>
       </c>
+      <c r="HP51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35348,6 +35501,9 @@
       <c r="HO52" t="n">
         <v>30</v>
       </c>
+      <c r="HP52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36021,6 +36177,9 @@
       <c r="HO53" t="n">
         <v>46</v>
       </c>
+      <c r="HP53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36694,6 +36853,9 @@
       <c r="HO54" t="n">
         <v>2</v>
       </c>
+      <c r="HP54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37367,6 +37529,9 @@
       <c r="HO55" t="n">
         <v>10</v>
       </c>
+      <c r="HP55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38040,6 +38205,9 @@
       <c r="HO56" t="n">
         <v>55.6</v>
       </c>
+      <c r="HP56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38713,6 +38881,9 @@
       <c r="HO57" t="n">
         <v>154</v>
       </c>
+      <c r="HP57" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39386,6 +39557,9 @@
       <c r="HO58" t="n">
         <v>118</v>
       </c>
+      <c r="HP58" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40059,6 +40233,9 @@
       <c r="HO59" t="n">
         <v>272</v>
       </c>
+      <c r="HP59" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40732,6 +40909,9 @@
       <c r="HO60" t="n">
         <v>1.31</v>
       </c>
+      <c r="HP60" t="n">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41405,6 +41585,9 @@
       <c r="HO61" t="n">
         <v>60</v>
       </c>
+      <c r="HP61" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42078,6 +42261,9 @@
       <c r="HO62" t="n">
         <v>37</v>
       </c>
+      <c r="HP62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42751,6 +42937,9 @@
       <c r="HO63" t="n">
         <v>27</v>
       </c>
+      <c r="HP63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43424,6 +43613,9 @@
       <c r="HO64" t="n">
         <v>21</v>
       </c>
+      <c r="HP64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44097,6 +44289,9 @@
       <c r="HO65" t="n">
         <v>21</v>
       </c>
+      <c r="HP65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44770,6 +44965,9 @@
       <c r="HO66" t="n">
         <v>6</v>
       </c>
+      <c r="HP66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45443,6 +45641,9 @@
       <c r="HO67" t="n">
         <v>3</v>
       </c>
+      <c r="HP67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46116,6 +46317,9 @@
       <c r="HO68" t="n">
         <v>5</v>
       </c>
+      <c r="HP68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46789,6 +46993,9 @@
       <c r="HO69" t="n">
         <v>4</v>
       </c>
+      <c r="HP69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47462,6 +47669,9 @@
       <c r="HO70" t="n">
         <v>15</v>
       </c>
+      <c r="HP70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48135,6 +48345,9 @@
       <c r="HO71" t="n">
         <v>40</v>
       </c>
+      <c r="HP71" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48808,6 +49021,9 @@
       <c r="HO72" t="n">
         <v>45.33</v>
       </c>
+      <c r="HP72" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49481,6 +49697,9 @@
       <c r="HO73" t="n">
         <v>18.13</v>
       </c>
+      <c r="HP73" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50154,6 +50373,9 @@
       <c r="HO74" t="n">
         <v>24</v>
       </c>
+      <c r="HP74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50827,6 +51049,9 @@
       <c r="HO75" t="n">
         <v>41</v>
       </c>
+      <c r="HP75" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51500,6 +51725,9 @@
       <c r="HO76" t="n">
         <v>17</v>
       </c>
+      <c r="HP76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52173,6 +52401,9 @@
       <c r="HO77" t="n">
         <v>37</v>
       </c>
+      <c r="HP77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52846,6 +53077,9 @@
       <c r="HO78" t="n">
         <v>2.47</v>
       </c>
+      <c r="HP78" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53519,6 +53753,9 @@
       <c r="HO79" t="n">
         <v>6.17</v>
       </c>
+      <c r="HP79" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54192,6 +54429,9 @@
       <c r="HO80" t="n">
         <v>29.7</v>
       </c>
+      <c r="HP80" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54865,6 +55105,9 @@
       <c r="HO81" t="n">
         <v>16.2</v>
       </c>
+      <c r="HP81" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55538,6 +55781,9 @@
       <c r="HO82" t="n">
         <v>187.7</v>
       </c>
+      <c r="HP82" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56211,6 +56457,9 @@
       <c r="HO83" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="HP83" t="n">
+        <v>88.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56884,6 +57133,9 @@
       <c r="HO84" t="n">
         <v>25.41</v>
       </c>
+      <c r="HP84" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57557,6 +57809,9 @@
       <c r="HO85" t="n">
         <v>83.2</v>
       </c>
+      <c r="HP85" t="n">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58230,6 +58485,9 @@
       <c r="HO86" t="n">
         <v>10</v>
       </c>
+      <c r="HP86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58903,6 +59161,9 @@
       <c r="HO87" t="n">
         <v>3</v>
       </c>
+      <c r="HP87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59576,6 +59837,9 @@
       <c r="HO88" t="n">
         <v>6</v>
       </c>
+      <c r="HP88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60249,6 +60513,9 @@
       <c r="HO89" t="n">
         <v>3</v>
       </c>
+      <c r="HP89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60922,6 +61189,9 @@
       <c r="HO90" t="n">
         <v>118</v>
       </c>
+      <c r="HP90" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61595,6 +61865,9 @@
       <c r="HO91" t="n">
         <v>156</v>
       </c>
+      <c r="HP91" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62268,6 +62541,9 @@
       <c r="HO92" t="n">
         <v>187</v>
       </c>
+      <c r="HP92" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62941,6 +63217,9 @@
       <c r="HO93" t="n">
         <v>68.8</v>
       </c>
+      <c r="HP93" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63614,6 +63893,9 @@
       <c r="HO94" t="n">
         <v>41</v>
       </c>
+      <c r="HP94" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64287,6 +64569,9 @@
       <c r="HO95" t="n">
         <v>12</v>
       </c>
+      <c r="HP95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64960,6 +65245,9 @@
       <c r="HO96" t="n">
         <v>8</v>
       </c>
+      <c r="HP96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65633,6 +65921,9 @@
       <c r="HO97" t="n">
         <v>24</v>
       </c>
+      <c r="HP97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66306,6 +66597,9 @@
       <c r="HO98" t="n">
         <v>17</v>
       </c>
+      <c r="HP98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66979,6 +67273,9 @@
       <c r="HO99" t="n">
         <v>32</v>
       </c>
+      <c r="HP99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67652,6 +67949,9 @@
       <c r="HO100" t="n">
         <v>2</v>
       </c>
+      <c r="HP100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68325,6 +68625,9 @@
       <c r="HO101" t="n">
         <v>3</v>
       </c>
+      <c r="HP101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68998,8 +69301,11 @@
       <c r="HO102" t="n">
         <v>50</v>
       </c>
+      <c r="HP102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/West Coast_stats.xlsx
+++ b/West Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,12 @@
       <c r="HP1" t="n">
         <v>10242</v>
       </c>
+      <c r="HQ1" t="n">
+        <v>10254</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>10267</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1710,12 @@
       <c r="HP2" t="n">
         <v>2020</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2380,6 +2392,12 @@
       <c r="HP3" t="n">
         <v>9</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3074,12 @@
       <c r="HP4" t="n">
         <v>0</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3732,6 +3756,12 @@
       <c r="HP5" t="n">
         <v>0</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4408,6 +4438,12 @@
       <c r="HP6" t="n">
         <v>73</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>72</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5084,6 +5120,12 @@
       <c r="HP7" t="n">
         <v>64</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5760,6 +5802,12 @@
       <c r="HP8" t="n">
         <v>9</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>22</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6436,6 +6484,12 @@
       <c r="HP9" t="n">
         <v>1</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7112,6 +7166,12 @@
       <c r="HP10" t="n">
         <v>7</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7788,6 +7848,12 @@
       <c r="HP11" t="n">
         <v>166</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>182</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8464,6 +8530,12 @@
       <c r="HP12" t="n">
         <v>92</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>105</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9140,6 +9212,12 @@
       <c r="HP13" t="n">
         <v>258</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>287</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9816,6 +9894,12 @@
       <c r="HP14" t="n">
         <v>1.8</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10492,6 +10576,12 @@
       <c r="HP15" t="n">
         <v>57</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>77</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11168,6 +11258,12 @@
       <c r="HP16" t="n">
         <v>46</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>56</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11844,6 +11940,12 @@
       <c r="HP17" t="n">
         <v>39</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>49</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12622,12 @@
       <c r="HP18" t="n">
         <v>15</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>14</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13196,6 +13304,12 @@
       <c r="HP19" t="n">
         <v>12</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13872,6 +13986,12 @@
       <c r="HP20" t="n">
         <v>11</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14548,6 +14668,12 @@
       <c r="HP21" t="n">
         <v>8</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15224,6 +15350,12 @@
       <c r="HP22" t="n">
         <v>6</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15900,6 +16032,12 @@
       <c r="HP23" t="n">
         <v>1</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16576,6 +16714,12 @@
       <c r="HP24" t="n">
         <v>18</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>17</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17252,6 +17396,12 @@
       <c r="HP25" t="n">
         <v>61.1</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17928,6 +18078,12 @@
       <c r="HP26" t="n">
         <v>23.45</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>26.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18604,6 +18760,12 @@
       <c r="HP27" t="n">
         <v>14.33</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="HR27" t="n">
+        <v>15.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19280,6 +19442,12 @@
       <c r="HP28" t="n">
         <v>35</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>43</v>
+      </c>
+      <c r="HR28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19956,6 +20124,12 @@
       <c r="HP29" t="n">
         <v>39</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>43</v>
+      </c>
+      <c r="HR29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20632,6 +20806,12 @@
       <c r="HP30" t="n">
         <v>29</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>36</v>
+      </c>
+      <c r="HR30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21308,6 +21488,12 @@
       <c r="HP31" t="n">
         <v>45</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>35</v>
+      </c>
+      <c r="HR31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21984,6 +22170,12 @@
       <c r="HP32" t="n">
         <v>2.5</v>
       </c>
+      <c r="HQ32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="HR32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22660,6 +22852,12 @@
       <c r="HP33" t="n">
         <v>4.09</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="HR33" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23336,6 +23534,12 @@
       <c r="HP34" t="n">
         <v>37.8</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="HR34" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24012,6 +24216,12 @@
       <c r="HP35" t="n">
         <v>24.4</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="HR35" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24688,6 +24898,12 @@
       <c r="HP36" t="n">
         <v>188</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>188</v>
+      </c>
+      <c r="HR36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25364,6 +25580,12 @@
       <c r="HP37" t="n">
         <v>87.5</v>
       </c>
+      <c r="HQ37" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="HR37" t="n">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26040,6 +26262,12 @@
       <c r="HP38" t="n">
         <v>25.91</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="HR38" t="n">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26716,6 +26944,12 @@
       <c r="HP39" t="n">
         <v>112</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="HR39" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27392,6 +27626,12 @@
       <c r="HP40" t="n">
         <v>8</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28068,6 +28308,12 @@
       <c r="HP41" t="n">
         <v>4</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28744,6 +28990,12 @@
       <c r="HP42" t="n">
         <v>1</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29420,6 +29672,12 @@
       <c r="HP43" t="n">
         <v>9</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30096,6 +30354,12 @@
       <c r="HP44" t="n">
         <v>113</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>120</v>
+      </c>
+      <c r="HR44" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30772,6 +31036,12 @@
       <c r="HP45" t="n">
         <v>144</v>
       </c>
+      <c r="HQ45" t="n">
+        <v>165</v>
+      </c>
+      <c r="HR45" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31448,6 +31718,12 @@
       <c r="HP46" t="n">
         <v>178</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>202</v>
+      </c>
+      <c r="HR46" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32124,6 +32400,12 @@
       <c r="HP47" t="n">
         <v>69</v>
       </c>
+      <c r="HQ47" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="HR47" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32800,6 +33082,12 @@
       <c r="HP48" t="n">
         <v>39</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>43</v>
+      </c>
+      <c r="HR48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33476,6 +33764,12 @@
       <c r="HP49" t="n">
         <v>10</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>12</v>
+      </c>
+      <c r="HR49" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34152,6 +34446,12 @@
       <c r="HP50" t="n">
         <v>10</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34828,6 +35128,12 @@
       <c r="HP51" t="n">
         <v>35</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>43</v>
+      </c>
+      <c r="HR51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35504,6 +35810,12 @@
       <c r="HP52" t="n">
         <v>29</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>36</v>
+      </c>
+      <c r="HR52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36180,6 +36492,12 @@
       <c r="HP53" t="n">
         <v>48</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>48</v>
+      </c>
+      <c r="HR53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36856,6 +37174,12 @@
       <c r="HP54" t="n">
         <v>5</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37532,6 +37856,12 @@
       <c r="HP55" t="n">
         <v>8</v>
       </c>
+      <c r="HQ55" t="n">
+        <v>8</v>
+      </c>
+      <c r="HR55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38208,6 +38538,12 @@
       <c r="HP56" t="n">
         <v>72.7</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="HR56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38884,6 +39220,12 @@
       <c r="HP57" t="n">
         <v>182</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>152</v>
+      </c>
+      <c r="HR57" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39560,6 +39902,12 @@
       <c r="HP58" t="n">
         <v>98</v>
       </c>
+      <c r="HQ58" t="n">
+        <v>100</v>
+      </c>
+      <c r="HR58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40236,6 +40584,12 @@
       <c r="HP59" t="n">
         <v>280</v>
       </c>
+      <c r="HQ59" t="n">
+        <v>252</v>
+      </c>
+      <c r="HR59" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40912,6 +41266,12 @@
       <c r="HP60" t="n">
         <v>1.86</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="HR60" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41588,6 +41948,12 @@
       <c r="HP61" t="n">
         <v>95</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>61</v>
+      </c>
+      <c r="HR61" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42264,6 +42630,12 @@
       <c r="HP62" t="n">
         <v>46</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>77</v>
+      </c>
+      <c r="HR62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42940,6 +43312,12 @@
       <c r="HP63" t="n">
         <v>26</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>33</v>
+      </c>
+      <c r="HR63" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43616,6 +43994,12 @@
       <c r="HP64" t="n">
         <v>12</v>
       </c>
+      <c r="HQ64" t="n">
+        <v>12</v>
+      </c>
+      <c r="HR64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44292,6 +44676,12 @@
       <c r="HP65" t="n">
         <v>15</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>14</v>
+      </c>
+      <c r="HR65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44968,6 +45358,12 @@
       <c r="HP66" t="n">
         <v>10</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45644,6 +46040,12 @@
       <c r="HP67" t="n">
         <v>8</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46320,6 +46722,12 @@
       <c r="HP68" t="n">
         <v>4</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46996,6 +47404,12 @@
       <c r="HP69" t="n">
         <v>0</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47672,6 +48086,12 @@
       <c r="HP70" t="n">
         <v>14</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>15</v>
+      </c>
+      <c r="HR70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48348,6 +48768,12 @@
       <c r="HP71" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="HR71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49024,6 +49450,12 @@
       <c r="HP72" t="n">
         <v>28</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>36</v>
+      </c>
+      <c r="HR72" t="n">
+        <v>44.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49700,6 +50132,12 @@
       <c r="HP73" t="n">
         <v>20</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="HR73" t="n">
+        <v>22.21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50376,6 +50814,12 @@
       <c r="HP74" t="n">
         <v>32</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>32</v>
+      </c>
+      <c r="HR74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51052,6 +51496,12 @@
       <c r="HP75" t="n">
         <v>43</v>
       </c>
+      <c r="HQ75" t="n">
+        <v>40</v>
+      </c>
+      <c r="HR75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51728,6 +52178,12 @@
       <c r="HP76" t="n">
         <v>33</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>21</v>
+      </c>
+      <c r="HR76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52404,6 +52860,12 @@
       <c r="HP77" t="n">
         <v>39</v>
       </c>
+      <c r="HQ77" t="n">
+        <v>44</v>
+      </c>
+      <c r="HR77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53080,6 +53542,12 @@
       <c r="HP78" t="n">
         <v>2.79</v>
       </c>
+      <c r="HQ78" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="HR78" t="n">
+        <v>3.43</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53756,6 +54224,12 @@
       <c r="HP79" t="n">
         <v>3.9</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="HR79" t="n">
+        <v>6.86</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54432,6 +54906,12 @@
       <c r="HP80" t="n">
         <v>35.9</v>
       </c>
+      <c r="HQ80" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HR80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55108,6 +55588,12 @@
       <c r="HP81" t="n">
         <v>25.6</v>
       </c>
+      <c r="HQ81" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="HR81" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55784,6 +56270,12 @@
       <c r="HP82" t="n">
         <v>188.8</v>
       </c>
+      <c r="HQ82" t="n">
+        <v>188</v>
+      </c>
+      <c r="HR82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56460,6 +56952,12 @@
       <c r="HP83" t="n">
         <v>88.5</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HR83" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57136,6 +57634,12 @@
       <c r="HP84" t="n">
         <v>26.33</v>
       </c>
+      <c r="HQ84" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="HR84" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57812,6 +58316,12 @@
       <c r="HP85" t="n">
         <v>111.1</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="HR85" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58488,6 +58998,12 @@
       <c r="HP86" t="n">
         <v>7</v>
       </c>
+      <c r="HQ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HR86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59164,6 +59680,12 @@
       <c r="HP87" t="n">
         <v>6</v>
       </c>
+      <c r="HQ87" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59840,6 +60362,12 @@
       <c r="HP88" t="n">
         <v>1</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60516,6 +61044,12 @@
       <c r="HP89" t="n">
         <v>8</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61192,6 +61726,12 @@
       <c r="HP90" t="n">
         <v>108</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>116</v>
+      </c>
+      <c r="HR90" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61868,6 +62408,12 @@
       <c r="HP91" t="n">
         <v>172</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>134</v>
+      </c>
+      <c r="HR91" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62544,6 +63090,12 @@
       <c r="HP92" t="n">
         <v>208</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>165</v>
+      </c>
+      <c r="HR92" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63220,6 +63772,12 @@
       <c r="HP93" t="n">
         <v>74.3</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="HR93" t="n">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63896,6 +64454,12 @@
       <c r="HP94" t="n">
         <v>43</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>40</v>
+      </c>
+      <c r="HR94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64572,6 +65136,12 @@
       <c r="HP95" t="n">
         <v>12</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>14</v>
+      </c>
+      <c r="HR95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65248,6 +65818,12 @@
       <c r="HP96" t="n">
         <v>9</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65924,6 +66500,12 @@
       <c r="HP97" t="n">
         <v>32</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>32</v>
+      </c>
+      <c r="HR97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66600,6 +67182,12 @@
       <c r="HP98" t="n">
         <v>33</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>21</v>
+      </c>
+      <c r="HR98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67276,6 +67864,12 @@
       <c r="HP99" t="n">
         <v>37</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HR99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67952,6 +68546,12 @@
       <c r="HP100" t="n">
         <v>0</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68628,6 +69228,12 @@
       <c r="HP101" t="n">
         <v>8</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69304,8 +69910,14 @@
       <c r="HP102" t="n">
         <v>80</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="HR102" t="n">
+        <v>42.9</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/West Coast_stats.xlsx
+++ b/West Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HR102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +1034,27 @@
       <c r="HR1" t="n">
         <v>10267</v>
       </c>
+      <c r="HS1" t="n">
+        <v>10276</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>10279</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>10287</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>10295</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>10300</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>10309</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>10321</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1716,6 +1737,27 @@
       <c r="HR2" t="n">
         <v>2020</v>
       </c>
+      <c r="HS2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2398,6 +2440,27 @@
       <c r="HR3" t="n">
         <v>12</v>
       </c>
+      <c r="HS3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>14</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>17</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>18</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3080,6 +3143,27 @@
       <c r="HR4" t="n">
         <v>0</v>
       </c>
+      <c r="HS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3762,6 +3846,27 @@
       <c r="HR5" t="n">
         <v>0</v>
       </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4444,6 +4549,27 @@
       <c r="HR6" t="n">
         <v>81</v>
       </c>
+      <c r="HS6" t="n">
+        <v>61</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>61</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>60</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>47</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>65</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>49</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5126,6 +5252,27 @@
       <c r="HR7" t="n">
         <v>49</v>
       </c>
+      <c r="HS7" t="n">
+        <v>49</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>88</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>45</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>49</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>50</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>34</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5808,6 +5955,27 @@
       <c r="HR8" t="n">
         <v>32</v>
       </c>
+      <c r="HS8" t="n">
+        <v>12</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>-27</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>15</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6490,6 +6658,27 @@
       <c r="HR9" t="n">
         <v>1</v>
       </c>
+      <c r="HS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7172,6 +7361,27 @@
       <c r="HR10" t="n">
         <v>10</v>
       </c>
+      <c r="HS10" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>14</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>18</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7854,6 +8064,27 @@
       <c r="HR11" t="n">
         <v>198</v>
       </c>
+      <c r="HS11" t="n">
+        <v>173</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>168</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>191</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>175</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>180</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>167</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8536,6 +8767,27 @@
       <c r="HR12" t="n">
         <v>122</v>
       </c>
+      <c r="HS12" t="n">
+        <v>87</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>144</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>92</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>86</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>90</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>111</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9218,6 +9470,27 @@
       <c r="HR13" t="n">
         <v>320</v>
       </c>
+      <c r="HS13" t="n">
+        <v>260</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>312</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>283</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>261</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>270</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>278</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9900,6 +10173,27 @@
       <c r="HR14" t="n">
         <v>1.62</v>
       </c>
+      <c r="HS14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="HU14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="HV14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10582,6 +10876,27 @@
       <c r="HR15" t="n">
         <v>84</v>
       </c>
+      <c r="HS15" t="n">
+        <v>91</v>
+      </c>
+      <c r="HT15" t="n">
+        <v>46</v>
+      </c>
+      <c r="HU15" t="n">
+        <v>107</v>
+      </c>
+      <c r="HV15" t="n">
+        <v>80</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>69</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>48</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11264,6 +11579,27 @@
       <c r="HR16" t="n">
         <v>57</v>
       </c>
+      <c r="HS16" t="n">
+        <v>41</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>56</v>
+      </c>
+      <c r="HU16" t="n">
+        <v>27</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>34</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>45</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>53</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11946,6 +12282,27 @@
       <c r="HR17" t="n">
         <v>46</v>
       </c>
+      <c r="HS17" t="n">
+        <v>35</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>30</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>33</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>34</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>36</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>29</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12628,6 +12985,27 @@
       <c r="HR18" t="n">
         <v>12</v>
       </c>
+      <c r="HS18" t="n">
+        <v>11</v>
+      </c>
+      <c r="HT18" t="n">
+        <v>22</v>
+      </c>
+      <c r="HU18" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>22</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>19</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13310,6 +13688,27 @@
       <c r="HR19" t="n">
         <v>9</v>
       </c>
+      <c r="HS19" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>16</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>15</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13992,6 +14391,27 @@
       <c r="HR20" t="n">
         <v>12</v>
       </c>
+      <c r="HS20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14674,6 +15094,27 @@
       <c r="HR21" t="n">
         <v>6</v>
       </c>
+      <c r="HS21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15356,6 +15797,27 @@
       <c r="HR22" t="n">
         <v>6</v>
       </c>
+      <c r="HS22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16038,6 +16500,27 @@
       <c r="HR23" t="n">
         <v>3</v>
       </c>
+      <c r="HS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16720,6 +17203,27 @@
       <c r="HR24" t="n">
         <v>21</v>
       </c>
+      <c r="HS24" t="n">
+        <v>16</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>16</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>12</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>20</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17402,6 +17906,27 @@
       <c r="HR25" t="n">
         <v>57.1</v>
       </c>
+      <c r="HS25" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="HU25" t="n">
+        <v>60</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>45</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18084,6 +18609,27 @@
       <c r="HR26" t="n">
         <v>26.67</v>
       </c>
+      <c r="HS26" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="HU26" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>30</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18766,6 +19312,27 @@
       <c r="HR27" t="n">
         <v>15.24</v>
       </c>
+      <c r="HS27" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="HT27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="HU27" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="HV27" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>14.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19448,6 +20015,27 @@
       <c r="HR28" t="n">
         <v>35</v>
       </c>
+      <c r="HS28" t="n">
+        <v>29</v>
+      </c>
+      <c r="HT28" t="n">
+        <v>32</v>
+      </c>
+      <c r="HU28" t="n">
+        <v>24</v>
+      </c>
+      <c r="HV28" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>30</v>
+      </c>
+      <c r="HX28" t="n">
+        <v>29</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20130,6 +20718,27 @@
       <c r="HR29" t="n">
         <v>51</v>
       </c>
+      <c r="HS29" t="n">
+        <v>35</v>
+      </c>
+      <c r="HT29" t="n">
+        <v>50</v>
+      </c>
+      <c r="HU29" t="n">
+        <v>38</v>
+      </c>
+      <c r="HV29" t="n">
+        <v>33</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>45</v>
+      </c>
+      <c r="HX29" t="n">
+        <v>48</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20812,6 +21421,27 @@
       <c r="HR30" t="n">
         <v>41</v>
       </c>
+      <c r="HS30" t="n">
+        <v>32</v>
+      </c>
+      <c r="HT30" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU30" t="n">
+        <v>34</v>
+      </c>
+      <c r="HV30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>37</v>
+      </c>
+      <c r="HX30" t="n">
+        <v>39</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21494,6 +22124,27 @@
       <c r="HR31" t="n">
         <v>42</v>
       </c>
+      <c r="HS31" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT31" t="n">
+        <v>45</v>
+      </c>
+      <c r="HU31" t="n">
+        <v>32</v>
+      </c>
+      <c r="HV31" t="n">
+        <v>27</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>39</v>
+      </c>
+      <c r="HX31" t="n">
+        <v>40</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22176,6 +22827,27 @@
       <c r="HR32" t="n">
         <v>2</v>
       </c>
+      <c r="HS32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="HT32" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="HU32" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="HV32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="HX32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22858,6 +23530,27 @@
       <c r="HR33" t="n">
         <v>3.5</v>
       </c>
+      <c r="HS33" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT33" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU33" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="HV33" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23540,6 +24233,27 @@
       <c r="HR34" t="n">
         <v>42.9</v>
       </c>
+      <c r="HS34" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="HT34" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="HU34" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="HV34" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>30</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24222,6 +24936,27 @@
       <c r="HR35" t="n">
         <v>28.6</v>
       </c>
+      <c r="HS35" t="n">
+        <v>25</v>
+      </c>
+      <c r="HT35" t="n">
+        <v>20</v>
+      </c>
+      <c r="HU35" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="HV35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="HX35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24904,6 +25639,27 @@
       <c r="HR36" t="n">
         <v>188.7</v>
       </c>
+      <c r="HS36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HT36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HU36" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HV36" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="HX36" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25586,6 +26342,27 @@
       <c r="HR37" t="n">
         <v>88.7</v>
       </c>
+      <c r="HS37" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="HT37" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="HU37" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="HV37" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="HX37" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26268,6 +27045,27 @@
       <c r="HR38" t="n">
         <v>11.8</v>
       </c>
+      <c r="HS38" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="HT38" t="n">
+        <v>11</v>
+      </c>
+      <c r="HU38" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="HV38" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HW38" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="HX38" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>26.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26950,6 +27748,27 @@
       <c r="HR39" t="n">
         <v>116.5</v>
       </c>
+      <c r="HS39" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="HT39" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="HU39" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="HV39" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="HX39" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27632,6 +28451,27 @@
       <c r="HR40" t="n">
         <v>8</v>
       </c>
+      <c r="HS40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV40" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HX40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28314,6 +29154,27 @@
       <c r="HR41" t="n">
         <v>3</v>
       </c>
+      <c r="HS41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28996,6 +29857,27 @@
       <c r="HR42" t="n">
         <v>2</v>
       </c>
+      <c r="HS42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29678,6 +30560,27 @@
       <c r="HR43" t="n">
         <v>9</v>
       </c>
+      <c r="HS43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HV43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX43" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30360,6 +31263,27 @@
       <c r="HR44" t="n">
         <v>145</v>
       </c>
+      <c r="HS44" t="n">
+        <v>98</v>
+      </c>
+      <c r="HT44" t="n">
+        <v>132</v>
+      </c>
+      <c r="HU44" t="n">
+        <v>104</v>
+      </c>
+      <c r="HV44" t="n">
+        <v>99</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>124</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>129</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31042,6 +31966,27 @@
       <c r="HR45" t="n">
         <v>186</v>
       </c>
+      <c r="HS45" t="n">
+        <v>167</v>
+      </c>
+      <c r="HT45" t="n">
+        <v>192</v>
+      </c>
+      <c r="HU45" t="n">
+        <v>180</v>
+      </c>
+      <c r="HV45" t="n">
+        <v>158</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>139</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>148</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31724,6 +32669,27 @@
       <c r="HR46" t="n">
         <v>218</v>
       </c>
+      <c r="HS46" t="n">
+        <v>192</v>
+      </c>
+      <c r="HT46" t="n">
+        <v>219</v>
+      </c>
+      <c r="HU46" t="n">
+        <v>214</v>
+      </c>
+      <c r="HV46" t="n">
+        <v>197</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>180</v>
+      </c>
+      <c r="HX46" t="n">
+        <v>194</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32406,6 +33372,27 @@
       <c r="HR47" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="HS47" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="HT47" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="HU47" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="HV47" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HX47" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33088,6 +34075,27 @@
       <c r="HR48" t="n">
         <v>51</v>
       </c>
+      <c r="HS48" t="n">
+        <v>35</v>
+      </c>
+      <c r="HT48" t="n">
+        <v>50</v>
+      </c>
+      <c r="HU48" t="n">
+        <v>38</v>
+      </c>
+      <c r="HV48" t="n">
+        <v>33</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>45</v>
+      </c>
+      <c r="HX48" t="n">
+        <v>48</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33770,6 +34778,27 @@
       <c r="HR49" t="n">
         <v>19</v>
       </c>
+      <c r="HS49" t="n">
+        <v>13</v>
+      </c>
+      <c r="HT49" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU49" t="n">
+        <v>17</v>
+      </c>
+      <c r="HV49" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX49" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34452,6 +35481,27 @@
       <c r="HR50" t="n">
         <v>12</v>
       </c>
+      <c r="HS50" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT50" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>11</v>
+      </c>
+      <c r="HX50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35134,6 +36184,27 @@
       <c r="HR51" t="n">
         <v>35</v>
       </c>
+      <c r="HS51" t="n">
+        <v>29</v>
+      </c>
+      <c r="HT51" t="n">
+        <v>32</v>
+      </c>
+      <c r="HU51" t="n">
+        <v>24</v>
+      </c>
+      <c r="HV51" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>30</v>
+      </c>
+      <c r="HX51" t="n">
+        <v>29</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35816,6 +36887,27 @@
       <c r="HR52" t="n">
         <v>41</v>
       </c>
+      <c r="HS52" t="n">
+        <v>32</v>
+      </c>
+      <c r="HT52" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU52" t="n">
+        <v>34</v>
+      </c>
+      <c r="HV52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>37</v>
+      </c>
+      <c r="HX52" t="n">
+        <v>39</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36498,6 +37590,27 @@
       <c r="HR53" t="n">
         <v>50</v>
       </c>
+      <c r="HS53" t="n">
+        <v>56</v>
+      </c>
+      <c r="HT53" t="n">
+        <v>59</v>
+      </c>
+      <c r="HU53" t="n">
+        <v>45</v>
+      </c>
+      <c r="HV53" t="n">
+        <v>35</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>70</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>53</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37180,6 +38293,27 @@
       <c r="HR54" t="n">
         <v>0</v>
       </c>
+      <c r="HS54" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU54" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV54" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37862,6 +38996,27 @@
       <c r="HR55" t="n">
         <v>6</v>
       </c>
+      <c r="HS55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU55" t="n">
+        <v>8</v>
+      </c>
+      <c r="HV55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38544,6 +39699,27 @@
       <c r="HR56" t="n">
         <v>50</v>
       </c>
+      <c r="HS56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HT56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HU56" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="HV56" t="n">
+        <v>100</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HX56" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39226,6 +40402,27 @@
       <c r="HR57" t="n">
         <v>161</v>
       </c>
+      <c r="HS57" t="n">
+        <v>182</v>
+      </c>
+      <c r="HT57" t="n">
+        <v>172</v>
+      </c>
+      <c r="HU57" t="n">
+        <v>173</v>
+      </c>
+      <c r="HV57" t="n">
+        <v>157</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>174</v>
+      </c>
+      <c r="HX57" t="n">
+        <v>164</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39908,6 +41105,27 @@
       <c r="HR58" t="n">
         <v>150</v>
       </c>
+      <c r="HS58" t="n">
+        <v>150</v>
+      </c>
+      <c r="HT58" t="n">
+        <v>121</v>
+      </c>
+      <c r="HU58" t="n">
+        <v>152</v>
+      </c>
+      <c r="HV58" t="n">
+        <v>162</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>111</v>
+      </c>
+      <c r="HX58" t="n">
+        <v>196</v>
+      </c>
+      <c r="HY58" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40590,6 +41808,27 @@
       <c r="HR59" t="n">
         <v>311</v>
       </c>
+      <c r="HS59" t="n">
+        <v>332</v>
+      </c>
+      <c r="HT59" t="n">
+        <v>293</v>
+      </c>
+      <c r="HU59" t="n">
+        <v>325</v>
+      </c>
+      <c r="HV59" t="n">
+        <v>319</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>285</v>
+      </c>
+      <c r="HX59" t="n">
+        <v>360</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41272,6 +42511,27 @@
       <c r="HR60" t="n">
         <v>1.07</v>
       </c>
+      <c r="HS60" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="HT60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="HU60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="HV60" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="HX60" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41954,6 +43214,27 @@
       <c r="HR61" t="n">
         <v>65</v>
       </c>
+      <c r="HS61" t="n">
+        <v>93</v>
+      </c>
+      <c r="HT61" t="n">
+        <v>69</v>
+      </c>
+      <c r="HU61" t="n">
+        <v>80</v>
+      </c>
+      <c r="HV61" t="n">
+        <v>59</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>47</v>
+      </c>
+      <c r="HX61" t="n">
+        <v>52</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42636,6 +43917,27 @@
       <c r="HR62" t="n">
         <v>54</v>
       </c>
+      <c r="HS62" t="n">
+        <v>47</v>
+      </c>
+      <c r="HT62" t="n">
+        <v>54</v>
+      </c>
+      <c r="HU62" t="n">
+        <v>38</v>
+      </c>
+      <c r="HV62" t="n">
+        <v>49</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>58</v>
+      </c>
+      <c r="HX62" t="n">
+        <v>47</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43318,6 +44620,27 @@
       <c r="HR63" t="n">
         <v>17</v>
       </c>
+      <c r="HS63" t="n">
+        <v>27</v>
+      </c>
+      <c r="HT63" t="n">
+        <v>31</v>
+      </c>
+      <c r="HU63" t="n">
+        <v>20</v>
+      </c>
+      <c r="HV63" t="n">
+        <v>25</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>36</v>
+      </c>
+      <c r="HX63" t="n">
+        <v>22</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44000,6 +45323,27 @@
       <c r="HR64" t="n">
         <v>9</v>
       </c>
+      <c r="HS64" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HU64" t="n">
+        <v>11</v>
+      </c>
+      <c r="HV64" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>16</v>
+      </c>
+      <c r="HX64" t="n">
+        <v>15</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44682,6 +46026,27 @@
       <c r="HR65" t="n">
         <v>12</v>
       </c>
+      <c r="HS65" t="n">
+        <v>11</v>
+      </c>
+      <c r="HT65" t="n">
+        <v>22</v>
+      </c>
+      <c r="HU65" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV65" t="n">
+        <v>22</v>
+      </c>
+      <c r="HW65" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX65" t="n">
+        <v>19</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45364,6 +46729,27 @@
       <c r="HR66" t="n">
         <v>7</v>
       </c>
+      <c r="HS66" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT66" t="n">
+        <v>14</v>
+      </c>
+      <c r="HU66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46046,6 +47432,27 @@
       <c r="HR67" t="n">
         <v>3</v>
       </c>
+      <c r="HS67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HU67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46728,6 +48135,27 @@
       <c r="HR68" t="n">
         <v>5</v>
       </c>
+      <c r="HS68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT68" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU68" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV68" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>11</v>
+      </c>
+      <c r="HX68" t="n">
+        <v>8</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47410,6 +48838,27 @@
       <c r="HR69" t="n">
         <v>2</v>
       </c>
+      <c r="HS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48092,6 +49541,27 @@
       <c r="HR70" t="n">
         <v>14</v>
       </c>
+      <c r="HS70" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT70" t="n">
+        <v>18</v>
+      </c>
+      <c r="HU70" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV70" t="n">
+        <v>19</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>20</v>
+      </c>
+      <c r="HX70" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48774,6 +50244,27 @@
       <c r="HR71" t="n">
         <v>50</v>
       </c>
+      <c r="HS71" t="n">
+        <v>50</v>
+      </c>
+      <c r="HT71" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HU71" t="n">
+        <v>40</v>
+      </c>
+      <c r="HV71" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>30</v>
+      </c>
+      <c r="HX71" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49456,6 +50947,27 @@
       <c r="HR72" t="n">
         <v>44.43</v>
       </c>
+      <c r="HS72" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="HT72" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="HU72" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="HV72" t="n">
+        <v>53.17</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="HX72" t="n">
+        <v>90</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50138,6 +51650,27 @@
       <c r="HR73" t="n">
         <v>22.21</v>
       </c>
+      <c r="HS73" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="HT73" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="HU73" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="HV73" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="HX73" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>17.62</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50820,6 +52353,27 @@
       <c r="HR74" t="n">
         <v>33</v>
       </c>
+      <c r="HS74" t="n">
+        <v>33</v>
+      </c>
+      <c r="HT74" t="n">
+        <v>29</v>
+      </c>
+      <c r="HU74" t="n">
+        <v>31</v>
+      </c>
+      <c r="HV74" t="n">
+        <v>34</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>40</v>
+      </c>
+      <c r="HX74" t="n">
+        <v>26</v>
+      </c>
+      <c r="HY74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51502,6 +53056,27 @@
       <c r="HR75" t="n">
         <v>48</v>
       </c>
+      <c r="HS75" t="n">
+        <v>42</v>
+      </c>
+      <c r="HT75" t="n">
+        <v>57</v>
+      </c>
+      <c r="HU75" t="n">
+        <v>32</v>
+      </c>
+      <c r="HV75" t="n">
+        <v>47</v>
+      </c>
+      <c r="HW75" t="n">
+        <v>57</v>
+      </c>
+      <c r="HX75" t="n">
+        <v>61</v>
+      </c>
+      <c r="HY75" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52184,6 +53759,27 @@
       <c r="HR76" t="n">
         <v>30</v>
       </c>
+      <c r="HS76" t="n">
+        <v>26</v>
+      </c>
+      <c r="HT76" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU76" t="n">
+        <v>22</v>
+      </c>
+      <c r="HV76" t="n">
+        <v>18</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>29</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>33</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52866,6 +54462,27 @@
       <c r="HR77" t="n">
         <v>48</v>
       </c>
+      <c r="HS77" t="n">
+        <v>41</v>
+      </c>
+      <c r="HT77" t="n">
+        <v>52</v>
+      </c>
+      <c r="HU77" t="n">
+        <v>41</v>
+      </c>
+      <c r="HV77" t="n">
+        <v>45</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>44</v>
+      </c>
+      <c r="HX77" t="n">
+        <v>43</v>
+      </c>
+      <c r="HY77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53548,6 +55165,27 @@
       <c r="HR78" t="n">
         <v>3.43</v>
       </c>
+      <c r="HS78" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="HT78" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="HU78" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="HV78" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="HX78" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54230,6 +55868,27 @@
       <c r="HR79" t="n">
         <v>6.86</v>
       </c>
+      <c r="HS79" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="HT79" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="HU79" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="HV79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="HX79" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54912,6 +56571,27 @@
       <c r="HR80" t="n">
         <v>25</v>
       </c>
+      <c r="HS80" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="HT80" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="HU80" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="HV80" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="HX80" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55594,6 +57274,27 @@
       <c r="HR81" t="n">
         <v>14.6</v>
       </c>
+      <c r="HS81" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="HT81" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="HU81" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="HV81" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="HX81" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56276,6 +57977,27 @@
       <c r="HR82" t="n">
         <v>187.5</v>
       </c>
+      <c r="HS82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HT82" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="HU82" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="HV82" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="HW82" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="HX82" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56958,6 +58680,27 @@
       <c r="HR83" t="n">
         <v>85.7</v>
       </c>
+      <c r="HS83" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="HT83" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HU83" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="HV83" t="n">
+        <v>85</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="HX83" t="n">
+        <v>88</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57640,6 +59383,27 @@
       <c r="HR84" t="n">
         <v>26.33</v>
       </c>
+      <c r="HS84" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HT84" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="HU84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HV84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX84" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58322,6 +60086,27 @@
       <c r="HR85" t="n">
         <v>121.8</v>
       </c>
+      <c r="HS85" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="HT85" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="HU85" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="HV85" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="HX85" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59004,6 +60789,27 @@
       <c r="HR86" t="n">
         <v>7</v>
       </c>
+      <c r="HS86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59686,6 +61492,27 @@
       <c r="HR87" t="n">
         <v>3</v>
       </c>
+      <c r="HS87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX87" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60368,6 +62195,27 @@
       <c r="HR88" t="n">
         <v>4</v>
       </c>
+      <c r="HS88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV88" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61050,6 +62898,27 @@
       <c r="HR89" t="n">
         <v>8</v>
       </c>
+      <c r="HS89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT89" t="n">
+        <v>7</v>
+      </c>
+      <c r="HU89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV89" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61732,6 +63601,27 @@
       <c r="HR90" t="n">
         <v>114</v>
       </c>
+      <c r="HS90" t="n">
+        <v>117</v>
+      </c>
+      <c r="HT90" t="n">
+        <v>123</v>
+      </c>
+      <c r="HU90" t="n">
+        <v>103</v>
+      </c>
+      <c r="HV90" t="n">
+        <v>118</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>123</v>
+      </c>
+      <c r="HX90" t="n">
+        <v>135</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62414,6 +64304,27 @@
       <c r="HR91" t="n">
         <v>194</v>
       </c>
+      <c r="HS91" t="n">
+        <v>224</v>
+      </c>
+      <c r="HT91" t="n">
+        <v>167</v>
+      </c>
+      <c r="HU91" t="n">
+        <v>211</v>
+      </c>
+      <c r="HV91" t="n">
+        <v>203</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>146</v>
+      </c>
+      <c r="HX91" t="n">
+        <v>227</v>
+      </c>
+      <c r="HY91" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63096,6 +65007,27 @@
       <c r="HR92" t="n">
         <v>212</v>
       </c>
+      <c r="HS92" t="n">
+        <v>242</v>
+      </c>
+      <c r="HT92" t="n">
+        <v>205</v>
+      </c>
+      <c r="HU92" t="n">
+        <v>238</v>
+      </c>
+      <c r="HV92" t="n">
+        <v>227</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>177</v>
+      </c>
+      <c r="HX92" t="n">
+        <v>264</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63778,6 +65710,27 @@
       <c r="HR93" t="n">
         <v>68.2</v>
       </c>
+      <c r="HS93" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="HT93" t="n">
+        <v>70</v>
+      </c>
+      <c r="HU93" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="HV93" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="HX93" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64460,6 +66413,27 @@
       <c r="HR94" t="n">
         <v>48</v>
       </c>
+      <c r="HS94" t="n">
+        <v>42</v>
+      </c>
+      <c r="HT94" t="n">
+        <v>57</v>
+      </c>
+      <c r="HU94" t="n">
+        <v>32</v>
+      </c>
+      <c r="HV94" t="n">
+        <v>47</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>57</v>
+      </c>
+      <c r="HX94" t="n">
+        <v>61</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65142,6 +67116,27 @@
       <c r="HR95" t="n">
         <v>7</v>
       </c>
+      <c r="HS95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HU95" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW95" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX95" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65824,6 +67819,27 @@
       <c r="HR96" t="n">
         <v>8</v>
       </c>
+      <c r="HS96" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT96" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU96" t="n">
+        <v>8</v>
+      </c>
+      <c r="HV96" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66506,6 +68522,27 @@
       <c r="HR97" t="n">
         <v>33</v>
       </c>
+      <c r="HS97" t="n">
+        <v>33</v>
+      </c>
+      <c r="HT97" t="n">
+        <v>29</v>
+      </c>
+      <c r="HU97" t="n">
+        <v>31</v>
+      </c>
+      <c r="HV97" t="n">
+        <v>34</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>40</v>
+      </c>
+      <c r="HX97" t="n">
+        <v>26</v>
+      </c>
+      <c r="HY97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67188,6 +69225,27 @@
       <c r="HR98" t="n">
         <v>30</v>
       </c>
+      <c r="HS98" t="n">
+        <v>26</v>
+      </c>
+      <c r="HT98" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU98" t="n">
+        <v>22</v>
+      </c>
+      <c r="HV98" t="n">
+        <v>18</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>29</v>
+      </c>
+      <c r="HX98" t="n">
+        <v>33</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67870,6 +69928,27 @@
       <c r="HR99" t="n">
         <v>44</v>
       </c>
+      <c r="HS99" t="n">
+        <v>43</v>
+      </c>
+      <c r="HT99" t="n">
+        <v>44</v>
+      </c>
+      <c r="HU99" t="n">
+        <v>42</v>
+      </c>
+      <c r="HV99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>59</v>
+      </c>
+      <c r="HX99" t="n">
+        <v>40</v>
+      </c>
+      <c r="HY99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68552,6 +70631,27 @@
       <c r="HR100" t="n">
         <v>0</v>
       </c>
+      <c r="HS100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69234,6 +71334,27 @@
       <c r="HR101" t="n">
         <v>3</v>
       </c>
+      <c r="HS101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HU101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW101" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69916,8 +72037,29 @@
       <c r="HR102" t="n">
         <v>42.9</v>
       </c>
+      <c r="HS102" t="n">
+        <v>100</v>
+      </c>
+      <c r="HT102" t="n">
+        <v>50</v>
+      </c>
+      <c r="HU102" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HV102" t="n">
+        <v>50</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HX102" t="n">
+        <v>100</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>